--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pozzi\Documents\Projects\pizza_chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806BA485-4674-4DC9-AD20-D0FCEDA7AEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7924C1-C24D-4761-9439-79F8340A3C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,7 +318,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +371,11 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -475,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -501,6 +506,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -515,9 +524,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,16 +857,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -889,12 +897,12 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
@@ -909,10 +917,10 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
@@ -927,10 +935,10 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -945,10 +953,10 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
@@ -963,10 +971,10 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
@@ -981,10 +989,10 @@
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
@@ -4266,7 +4274,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4280,43 +4288,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4394,12 +4402,12 @@
         <v>45603</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="15"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4442,10 +4450,10 @@
         <v>45603</v>
       </c>
       <c r="N4" s="5"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
@@ -4486,10 +4494,10 @@
         <v>45603</v>
       </c>
       <c r="N5" s="5"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="18"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -4528,10 +4536,10 @@
         <v>45603</v>
       </c>
       <c r="N6" s="5"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
@@ -4574,10 +4582,10 @@
         <v>45603</v>
       </c>
       <c r="N7" s="5"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="21"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
@@ -4907,7 +4915,7 @@
       <c r="D15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="23" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -4916,7 +4924,7 @@
       <c r="G15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="23" t="s">
         <v>55</v>
       </c>
       <c r="I15" s="6"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pozzi\Documents\Projects\pizza_chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7924C1-C24D-4761-9439-79F8340A3C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63844047-D0C9-47B6-B19C-6CF7CB2691E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -310,6 +332,9 @@
   <si>
     <t>Gorgonzola</t>
   </si>
+  <si>
+    <t>Salsiccia e bufala</t>
+  </si>
 </sst>
 </file>
 
@@ -480,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -510,6 +535,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -524,14 +552,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -583,14 +612,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Orders-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
     <tableStyle name="Pizza-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -605,8 +634,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D33">
-  <autoFilter ref="A1:D33" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D37">
+  <autoFilter ref="A1:D37" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pizza"/>
@@ -618,10 +647,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Pizza" displayName="Pizza" ref="A1:M30">
-  <autoFilter ref="A1:M30" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Pizza" displayName="Pizza" ref="B1:N30">
+  <autoFilter ref="B1:N30" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Pizza"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Pizza" dataDxfId="0">
+      <calculatedColumnFormula>IF(ISBLANK($A2),"",A2)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="#">
       <calculatedColumnFormula>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</calculatedColumnFormula>
     </tableColumn>
@@ -843,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -897,12 +928,12 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
@@ -917,10 +948,10 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
@@ -935,10 +966,10 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -953,10 +984,10 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
@@ -971,10 +1002,10 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
@@ -989,10 +1020,10 @@
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
@@ -1345,16 +1376,60 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C34" s="2"/>
+      <c r="A34" s="24">
+        <v>45687</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C35" s="2"/>
+      <c r="A35" s="24">
+        <v>45687</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C36" s="2"/>
+      <c r="A36" s="24">
+        <v>45687</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="2"/>
+      <c r="A37" s="24">
+        <v>45687</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C38" s="2"/>
@@ -4271,97 +4346,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" customWidth="1"/>
-    <col min="2" max="2" width="13.1328125" customWidth="1"/>
-    <col min="3" max="11" width="11.53125" customWidth="1"/>
-    <col min="12" max="12" width="11.73046875" customWidth="1"/>
-    <col min="13" max="13" width="10.86328125" customWidth="1"/>
-    <col min="14" max="25" width="8.73046875" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
+    <col min="4" max="12" width="11.53125" customWidth="1"/>
+    <col min="13" max="13" width="11.73046875" customWidth="1"/>
+    <col min="14" max="14" width="10.86328125" customWidth="1"/>
+    <col min="15" max="26" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("ARRAY_CONSTRAIN(ARRAYFORMULA(UNIQUE(Orders!$B$2:$B$100)), 100, 1)"),"Siciliana")</f>
+    <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A19">_xlfn.UNIQUE(Orders[Pizza])</f>
         <v>Siciliana</v>
       </c>
-      <c r="B2" s="6">
-        <f ca="1">IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
+      <c r="B2" s="5" t="str">
+        <f t="shared" ref="B2:B30" si="0">IF(ISBLANK($A2),"",A2)</f>
+        <v>Siciliana</v>
+      </c>
+      <c r="C2" s="6">
+        <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <f ca="1">IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
+      <c r="M2" s="6"/>
+      <c r="N2" s="8">
+        <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v>45603</v>
       </c>
-      <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -4373,23 +4451,26 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
-    </row>
-    <row r="3" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Margherita")</f>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="str">
         <v>Margherita</v>
       </c>
-      <c r="B3" s="6">
-        <f ca="1">IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Margherita</v>
+      </c>
+      <c r="C3" s="6">
+        <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4397,235 +4478,250 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <f ca="1">IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
+      <c r="M3" s="6"/>
+      <c r="N3" s="8">
+        <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v>45603</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="5"/>
+      <c r="P3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
-      <c r="S3" s="5"/>
+      <c r="S3" s="16"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-    </row>
-    <row r="4" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fresca")</f>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" t="str">
         <v>Fresca</v>
       </c>
-      <c r="B4" s="6">
-        <f ca="1">IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
+      <c r="B4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Fresca</v>
+      </c>
+      <c r="C4" s="6">
+        <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <f ca="1">IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
+      <c r="M4" s="6"/>
+      <c r="N4" s="8">
+        <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v>45603</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="16"/>
+      <c r="O4" s="5"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="5"/>
+      <c r="S4" s="19"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-    </row>
-    <row r="5" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Taleggio e porcini")</f>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" t="str">
         <v>Taleggio e porcini</v>
       </c>
-      <c r="B5" s="6">
-        <f ca="1">IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
+      <c r="B5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Taleggio e porcini</v>
+      </c>
+      <c r="C5" s="6">
+        <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <f ca="1">IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
+      <c r="M5" s="6"/>
+      <c r="N5" s="8">
+        <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v>45603</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="16"/>
+      <c r="O5" s="5"/>
       <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
-      <c r="S5" s="5"/>
+      <c r="S5" s="19"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-    </row>
-    <row r="6" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Salame piccante")</f>
+      <c r="Z5" s="5"/>
+    </row>
+    <row r="6" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" t="str">
         <v>Salame piccante</v>
       </c>
-      <c r="B6" s="6">
-        <f ca="1">IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Salame piccante</v>
+      </c>
+      <c r="C6" s="6">
+        <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <f ca="1">IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
+      <c r="M6" s="6"/>
+      <c r="N6" s="8">
+        <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v>45603</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="16"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
-      <c r="S6" s="5"/>
+      <c r="S6" s="19"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-    </row>
-    <row r="7" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Parmigiana senza zola")</f>
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" t="str">
         <v>Parmigiana senza zola</v>
       </c>
-      <c r="B7" s="6">
-        <f ca="1">IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
+      <c r="B7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Parmigiana senza zola</v>
+      </c>
+      <c r="C7" s="6">
+        <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <f ca="1">IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
+      <c r="M7" s="6"/>
+      <c r="N7" s="8">
+        <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v>45603</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="19"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
-      <c r="S7" s="5"/>
+      <c r="S7" s="22"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-    </row>
-    <row r="8" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Wurstel e patatine")</f>
+      <c r="Z7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" t="str">
         <v>Wurstel e patatine</v>
       </c>
-      <c r="B8" s="6">
-        <f ca="1">IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>19</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Wurstel e patatine</v>
+      </c>
+      <c r="C8" s="6">
+        <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <f ca="1">IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
+      <c r="M8" s="6"/>
+      <c r="N8" s="8">
+        <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v>45603</v>
       </c>
-      <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -4637,39 +4733,42 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-    </row>
-    <row r="9" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Speck e scamorza")</f>
+      <c r="Z8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" t="str">
         <v>Speck e scamorza</v>
       </c>
-      <c r="B9" s="6">
-        <f ca="1">IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
+      <c r="B9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Speck e scamorza</v>
+      </c>
+      <c r="C9" s="6">
+        <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>1</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <f ca="1">IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
+      <c r="M9" s="6"/>
+      <c r="N9" s="8">
+        <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v>45603</v>
       </c>
-      <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -4681,37 +4780,40 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-    </row>
-    <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tonno")</f>
+      <c r="Z9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" t="str">
         <v>Tonno</v>
       </c>
-      <c r="B10" s="6">
-        <f ca="1">IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
+      <c r="B10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Tonno</v>
+      </c>
+      <c r="C10" s="6">
+        <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <f ca="1">IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
+      <c r="M10" s="6"/>
+      <c r="N10" s="8">
+        <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v>45603</v>
       </c>
-      <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -4723,39 +4825,42 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-    </row>
-    <row r="11" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bufala e salsiccia")</f>
+      <c r="Z10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" t="str">
         <v>Bufala e salsiccia</v>
       </c>
-      <c r="B11" s="6">
-        <f ca="1">IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
+      <c r="B11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Bufala e salsiccia</v>
+      </c>
+      <c r="C11" s="6">
+        <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <f ca="1">IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
+      <c r="M11" s="6"/>
+      <c r="N11" s="8">
+        <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v>45610</v>
       </c>
-      <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -4767,37 +4872,40 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-    </row>
-    <row r="12" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Porcini")</f>
+      <c r="Z11" s="5"/>
+    </row>
+    <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" t="str">
         <v>Porcini</v>
       </c>
-      <c r="B12" s="6">
-        <f ca="1">IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
+      <c r="B12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Porcini</v>
+      </c>
+      <c r="C12" s="6">
+        <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>1</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <f ca="1">IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
+      <c r="M12" s="6"/>
+      <c r="N12" s="8">
+        <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v>45610</v>
       </c>
-      <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -4809,39 +4917,42 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-    </row>
-    <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Prosciutto e funghi")</f>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="str">
         <v>Prosciutto e funghi</v>
       </c>
-      <c r="B13" s="6">
-        <f ca="1">IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
+      <c r="B13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Prosciutto e funghi</v>
+      </c>
+      <c r="C13" s="6">
+        <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <f ca="1">IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
+      <c r="M13" s="6"/>
+      <c r="N13" s="8">
+        <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v>45610</v>
       </c>
-      <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -4853,41 +4964,44 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-    </row>
-    <row r="14" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tricolore")</f>
+      <c r="Z13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" t="str">
         <v>Tricolore</v>
       </c>
-      <c r="B14" s="6">
-        <f ca="1">IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
+      <c r="B14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Tricolore</v>
+      </c>
+      <c r="C14" s="6">
+        <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>2</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <f ca="1">IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
+      <c r="M14" s="6"/>
+      <c r="N14" s="8">
+        <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v>45610</v>
       </c>
-      <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -4899,43 +5013,46 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-    </row>
-    <row r="15" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Quattro stagioni")</f>
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" t="str">
         <v>Quattro stagioni</v>
       </c>
-      <c r="B15" s="6">
-        <f ca="1">IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
+      <c r="B15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Quattro stagioni</v>
+      </c>
+      <c r="C15" s="6">
+        <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>3</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="F15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="I15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <f ca="1">IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
+      <c r="M15" s="6"/>
+      <c r="N15" s="8">
+        <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v>45617</v>
       </c>
-      <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -4947,37 +5064,40 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-    </row>
-    <row r="16" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Napoli")</f>
+      <c r="Z15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" t="str">
         <v>Napoli</v>
       </c>
-      <c r="B16" s="6">
-        <f ca="1">IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
+      <c r="B16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Napoli</v>
+      </c>
+      <c r="C16" s="6">
+        <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>1</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <f ca="1">IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
+      <c r="M16" s="6"/>
+      <c r="N16" s="8">
+        <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v>45617</v>
       </c>
-      <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -4989,99 +5109,120 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Prosciutto")</f>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" t="str">
         <v>Prosciutto</v>
       </c>
-      <c r="B17" s="6">
-        <f ca="1">IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
+      <c r="B17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Prosciutto</v>
+      </c>
+      <c r="C17" s="6">
+        <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>2</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <f ca="1">IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
+      <c r="M17" s="6"/>
+      <c r="N17" s="8">
+        <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v>45644</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Quattro formaggi")</f>
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" t="str">
         <v>Quattro formaggi</v>
       </c>
-      <c r="B18" s="6">
-        <f ca="1">IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
+      <c r="B18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Quattro formaggi</v>
+      </c>
+      <c r="C18" s="6">
+        <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>1</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <f ca="1">IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
+      <c r="M18" s="6"/>
+      <c r="N18" s="8">
+        <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v>45674</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" t="str">
+        <v>Salsiccia e bufala</v>
+      </c>
       <c r="B19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Salsiccia e bufala</v>
+      </c>
+      <c r="C19" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v/>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="8" t="str">
+      <c r="M19" s="6"/>
+      <c r="N19" s="8">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="6"/>
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C20" s="6" t="str">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v/>
       </c>
-      <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -5091,18 +5232,21 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="8" t="str">
+      <c r="M20" s="6"/>
+      <c r="N20" s="8" t="str">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C21" s="6" t="str">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v/>
       </c>
-      <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -5112,18 +5256,21 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="8" t="str">
+      <c r="M21" s="6"/>
+      <c r="N21" s="8" t="str">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C22" s="6" t="str">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v/>
       </c>
-      <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -5133,18 +5280,21 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="8" t="str">
+      <c r="M22" s="6"/>
+      <c r="N22" s="8" t="str">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C23" s="6" t="str">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v/>
       </c>
-      <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -5154,18 +5304,21 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="8" t="str">
+      <c r="M23" s="6"/>
+      <c r="N23" s="8" t="str">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="6"/>
+    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C24" s="6" t="str">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v/>
       </c>
-      <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -5175,18 +5328,21 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="8" t="str">
+      <c r="M24" s="6"/>
+      <c r="N24" s="8" t="str">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C25" s="6" t="str">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v/>
       </c>
-      <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -5196,18 +5352,21 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="8" t="str">
+      <c r="M25" s="6"/>
+      <c r="N25" s="8" t="str">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="6"/>
+    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C26" s="6" t="str">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v/>
       </c>
-      <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -5217,18 +5376,21 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="8" t="str">
+      <c r="M26" s="6"/>
+      <c r="N26" s="8" t="str">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C27" s="6" t="str">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v/>
       </c>
-      <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -5238,18 +5400,21 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="8" t="str">
+      <c r="M27" s="6"/>
+      <c r="N27" s="8" t="str">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C28" s="6" t="str">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v/>
       </c>
-      <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -5259,18 +5424,21 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="8" t="str">
+      <c r="M28" s="6"/>
+      <c r="N28" s="8" t="str">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="6"/>
+    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C29" s="6" t="str">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v/>
       </c>
-      <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -5280,18 +5448,21 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="8" t="str">
+      <c r="M29" s="6"/>
+      <c r="N29" s="8" t="str">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C30" s="6" t="str">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v/>
       </c>
-      <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -5301,18 +5472,18 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="8" t="str">
+      <c r="M30" s="6"/>
+      <c r="N30" s="8" t="str">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A31,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A31,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C31" s="6"/>
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B31,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B31,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -5322,15 +5493,15 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="8"/>
-    </row>
-    <row r="32" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A32,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A32,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C32" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B32,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B32,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -5340,15 +5511,15 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A33,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A33,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C33" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B33,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B33,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -5358,15 +5529,15 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A34,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A34,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C34" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B34,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B34,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -5376,15 +5547,15 @@
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A35,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A35,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C35" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B35,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B35,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -5394,15 +5565,15 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A36,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A36,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C36" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B36,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B36,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -5412,15 +5583,15 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A37,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A37,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C37" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B37,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B37,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -5430,15 +5601,15 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A38,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A38,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C38" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B38,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B38,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -5448,15 +5619,15 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A39,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A39,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C39" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B39,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B39,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -5466,15 +5637,15 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A40,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A40,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C40" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B40,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B40,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -5484,15 +5655,15 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A41,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A41,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C41" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B41,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B41,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -5502,15 +5673,15 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A42,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A42,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C42" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="8"/>
+    </row>
+    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B42,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B42,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -5520,15 +5691,15 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A43,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A43,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C43" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="8"/>
+    </row>
+    <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B43,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B43,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -5538,15 +5709,15 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A44,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A44,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C44" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="8"/>
+    </row>
+    <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B44,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B44,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -5556,15 +5727,15 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A45,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A45,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C45" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="8"/>
+    </row>
+    <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B45,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B45,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -5574,15 +5745,15 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A46,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A46,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C46" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="8"/>
+    </row>
+    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B46,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B46,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -5592,15 +5763,15 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A47,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A47,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C47" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="8"/>
+    </row>
+    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B47,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B47,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -5610,15 +5781,15 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="8"/>
-    </row>
-    <row r="48" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A48,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A48,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C48" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="8"/>
+    </row>
+    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B48,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B48,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -5628,15 +5799,15 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="8"/>
-    </row>
-    <row r="49" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A49,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A49,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C49" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="8"/>
+    </row>
+    <row r="49" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B49,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B49,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -5646,15 +5817,15 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="8"/>
-    </row>
-    <row r="50" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A50,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A50,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C50" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B50,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B50,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -5664,15 +5835,15 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="8"/>
-    </row>
-    <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A51,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A51,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C51" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="8"/>
+    </row>
+    <row r="51" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B51,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B51,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -5682,15 +5853,15 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="8"/>
-    </row>
-    <row r="52" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A52,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A52,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C52" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B52,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B52,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -5700,15 +5871,15 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="8"/>
-    </row>
-    <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A53,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A53,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C53" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B53,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B53,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -5718,15 +5889,15 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-      <c r="M53" s="8"/>
-    </row>
-    <row r="54" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A54,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A54,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C54" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="8"/>
+    </row>
+    <row r="54" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B54,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B54,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -5736,15 +5907,15 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="8"/>
-    </row>
-    <row r="55" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A55,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A55,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C55" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="8"/>
+    </row>
+    <row r="55" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B55,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B55,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -5754,15 +5925,15 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="8"/>
-    </row>
-    <row r="56" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A56,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A56,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C56" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="8"/>
+    </row>
+    <row r="56" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B56,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B56,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -5772,15 +5943,15 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
-      <c r="M56" s="8"/>
-    </row>
-    <row r="57" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A57,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A57,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C57" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="8"/>
+    </row>
+    <row r="57" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B57,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B57,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -5790,15 +5961,15 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="8"/>
-    </row>
-    <row r="58" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A58,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A58,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C58" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="8"/>
+    </row>
+    <row r="58" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B58,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B58,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -5808,15 +5979,15 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="8"/>
-    </row>
-    <row r="59" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A59,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A59,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C59" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="8"/>
+    </row>
+    <row r="59" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B59,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B59,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -5826,15 +5997,15 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="8"/>
-    </row>
-    <row r="60" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A60,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A60,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C60" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="8"/>
+    </row>
+    <row r="60" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B60,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B60,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -5844,15 +6015,15 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="8"/>
-    </row>
-    <row r="61" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A61,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A61,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C61" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="8"/>
+    </row>
+    <row r="61" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B61,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B61,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -5862,15 +6033,15 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="8"/>
-    </row>
-    <row r="62" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A62,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A62,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C62" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="8"/>
+    </row>
+    <row r="62" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B62,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B62,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -5880,15 +6051,15 @@
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="8"/>
-    </row>
-    <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A63,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A63,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C63" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="8"/>
+    </row>
+    <row r="63" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B63,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B63,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -5898,15 +6069,15 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="8"/>
-    </row>
-    <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A64,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A64,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C64" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="8"/>
+    </row>
+    <row r="64" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B64,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B64,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -5916,15 +6087,15 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
-      <c r="M64" s="8"/>
-    </row>
-    <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A65,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A65,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C65" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="8"/>
+    </row>
+    <row r="65" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B65,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B65,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -5934,15 +6105,15 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="8"/>
-    </row>
-    <row r="66" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A66,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A66,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C66" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="8"/>
+    </row>
+    <row r="66" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B66,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B66,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -5952,15 +6123,15 @@
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="8"/>
-    </row>
-    <row r="67" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A67,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A67,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C67" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="8"/>
+    </row>
+    <row r="67" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B67,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B67,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -5970,15 +6141,15 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="8"/>
-    </row>
-    <row r="68" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A68,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A68,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C68" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="8"/>
+    </row>
+    <row r="68" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B68,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B68,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -5988,15 +6159,15 @@
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
-      <c r="M68" s="8"/>
-    </row>
-    <row r="69" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A69,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A69,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C69" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="8"/>
+    </row>
+    <row r="69" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B69,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B69,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -6006,15 +6177,15 @@
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="8"/>
-    </row>
-    <row r="70" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A70,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A70,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C70" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="8"/>
+    </row>
+    <row r="70" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B70,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B70,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -6024,15 +6195,15 @@
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="M70" s="8"/>
-    </row>
-    <row r="71" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A71,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A71,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C71" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="8"/>
+    </row>
+    <row r="71" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B71,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B71,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -6042,15 +6213,15 @@
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
-      <c r="M71" s="8"/>
-    </row>
-    <row r="72" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A72,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A72,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C72" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="8"/>
+    </row>
+    <row r="72" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B72,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B72,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -6060,15 +6231,15 @@
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
-      <c r="M72" s="8"/>
-    </row>
-    <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A73,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A73,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C73" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="8"/>
+    </row>
+    <row r="73" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B73,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B73,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -6078,15 +6249,15 @@
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
-      <c r="M73" s="8"/>
-    </row>
-    <row r="74" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A74,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A74,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C74" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="8"/>
+    </row>
+    <row r="74" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B74,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B74,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -6096,15 +6267,15 @@
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
-      <c r="M74" s="8"/>
-    </row>
-    <row r="75" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A75,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A75,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C75" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="8"/>
+    </row>
+    <row r="75" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B75,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B75,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -6114,15 +6285,15 @@
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
-      <c r="M75" s="8"/>
-    </row>
-    <row r="76" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A76,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A76,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C76" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="8"/>
+    </row>
+    <row r="76" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B76,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B76,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -6132,15 +6303,15 @@
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
-      <c r="M76" s="8"/>
-    </row>
-    <row r="77" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A77,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A77,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C77" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="8"/>
+    </row>
+    <row r="77" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B77,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B77,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -6150,15 +6321,15 @@
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
-      <c r="M77" s="8"/>
-    </row>
-    <row r="78" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A78,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A78,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C78" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="8"/>
+    </row>
+    <row r="78" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B78,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B78,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -6168,15 +6339,15 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="8"/>
-    </row>
-    <row r="79" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A79,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A79,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C79" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="8"/>
+    </row>
+    <row r="79" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B79,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B79,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -6186,15 +6357,15 @@
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="8"/>
-    </row>
-    <row r="80" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A80,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A80,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C80" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="8"/>
+    </row>
+    <row r="80" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B80,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B80,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -6204,15 +6375,15 @@
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
-      <c r="M80" s="8"/>
-    </row>
-    <row r="81" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A81,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A81,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C81" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="8"/>
+    </row>
+    <row r="81" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B81,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B81,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -6222,15 +6393,15 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
-      <c r="M81" s="8"/>
-    </row>
-    <row r="82" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A82,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A82,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C82" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="8"/>
+    </row>
+    <row r="82" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B82,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B82,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -6240,15 +6411,15 @@
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
-      <c r="M82" s="8"/>
-    </row>
-    <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A83,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A83,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C83" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="8"/>
+    </row>
+    <row r="83" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B83,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B83,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -6258,15 +6429,15 @@
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
-      <c r="M83" s="8"/>
-    </row>
-    <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A84,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A84,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C84" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="8"/>
+    </row>
+    <row r="84" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B84,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B84,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -6276,15 +6447,15 @@
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
-      <c r="M84" s="8"/>
-    </row>
-    <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A85,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A85,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C85" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="8"/>
+    </row>
+    <row r="85" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B85,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B85,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -6294,15 +6465,15 @@
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
-      <c r="M85" s="8"/>
-    </row>
-    <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A86,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A86,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C86" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="8"/>
+    </row>
+    <row r="86" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B86,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B86,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -6312,15 +6483,15 @@
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
-      <c r="M86" s="8"/>
-    </row>
-    <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A87,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A87,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C87" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="8"/>
+    </row>
+    <row r="87" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B87,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B87,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -6330,15 +6501,15 @@
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="8"/>
-    </row>
-    <row r="88" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A88,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A88,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C88" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="8"/>
+    </row>
+    <row r="88" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B88,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B88,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -6348,15 +6519,15 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
-      <c r="M88" s="8"/>
-    </row>
-    <row r="89" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A89,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A89,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C89" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="8"/>
+    </row>
+    <row r="89" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B89,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B89,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -6366,15 +6537,15 @@
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
-      <c r="M89" s="8"/>
-    </row>
-    <row r="90" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A90,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A90,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C90" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="8"/>
+    </row>
+    <row r="90" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B90,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B90,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -6384,15 +6555,15 @@
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
-      <c r="M90" s="8"/>
-    </row>
-    <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A91,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A91,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C91" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="8"/>
+    </row>
+    <row r="91" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B91" s="6"/>
+      <c r="C91" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B91,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B91,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -6402,15 +6573,15 @@
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
-      <c r="M91" s="8"/>
-    </row>
-    <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A92,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A92,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C92" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="8"/>
+    </row>
+    <row r="92" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B92" s="6"/>
+      <c r="C92" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B92,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B92,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -6420,15 +6591,15 @@
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
-      <c r="M92" s="8"/>
-    </row>
-    <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A93,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A93,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C93" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="8"/>
+    </row>
+    <row r="93" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B93" s="6"/>
+      <c r="C93" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B93,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B93,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -6438,15 +6609,15 @@
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
-      <c r="M93" s="8"/>
-    </row>
-    <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A94,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A94,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C94" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="8"/>
+    </row>
+    <row r="94" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B94" s="6"/>
+      <c r="C94" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B94,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B94,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -6456,15 +6627,15 @@
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
-      <c r="M94" s="8"/>
-    </row>
-    <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A95,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A95,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C95" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="8"/>
+    </row>
+    <row r="95" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B95" s="6"/>
+      <c r="C95" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B95,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B95,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -6474,15 +6645,15 @@
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
-      <c r="M95" s="8"/>
-    </row>
-    <row r="96" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A96,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A96,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C96" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="8"/>
+    </row>
+    <row r="96" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B96" s="6"/>
+      <c r="C96" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B96,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B96,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -6492,15 +6663,15 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="8"/>
-    </row>
-    <row r="97" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A97,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A97,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C97" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="8"/>
+    </row>
+    <row r="97" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B97" s="6"/>
+      <c r="C97" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B97,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B97,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -6510,15 +6681,15 @@
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
-      <c r="M97" s="8"/>
-    </row>
-    <row r="98" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A98,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A98,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C98" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="8"/>
+    </row>
+    <row r="98" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B98" s="6"/>
+      <c r="C98" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B98,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B98,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -6528,15 +6699,15 @@
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
-      <c r="M98" s="8"/>
-    </row>
-    <row r="99" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A99,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A99,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C99" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="8"/>
+    </row>
+    <row r="99" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="6"/>
+      <c r="C99" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B99,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B99,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -6546,15 +6717,15 @@
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
-      <c r="M99" s="8"/>
-    </row>
-    <row r="100" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,A100,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,A100,Orders!$C$2:$C$100))</f>
-        <v/>
-      </c>
-      <c r="C100" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="8"/>
+    </row>
+    <row r="100" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B100" s="6"/>
+      <c r="C100" s="6" t="str">
+        <f>IF(SUMIF(Orders!$B$2:$B$100,B100,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B100,Orders!$C$2:$C$100))</f>
+        <v/>
+      </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -6564,20 +6735,21 @@
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
-      <c r="M100" s="8"/>
-    </row>
-    <row r="101" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="102" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="103" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="104" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="105" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="106" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="107" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="108" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="109" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="110" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="111" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="112" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="8"/>
+    </row>
+    <row r="101" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7468,7 +7640,7 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="O3:R7"/>
+    <mergeCell ref="P3:S7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pozzi\Documents\Projects\pizza_chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63844047-D0C9-47B6-B19C-6CF7CB2691E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CC4411-F645-4B6F-8D8F-108DDD021EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>Salame piccante</t>
-  </si>
-  <si>
-    <t>Parmigiana senza zola</t>
   </si>
   <si>
     <t>Wurstel e patatine</t>
@@ -334,6 +331,9 @@
   </si>
   <si>
     <t>Salsiccia e bufala</t>
+  </si>
+  <si>
+    <t>Parmigiana</t>
   </si>
 </sst>
 </file>
@@ -538,6 +538,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -552,7 +553,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -634,8 +634,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D37">
-  <autoFilter ref="A1:D37" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D43">
+  <autoFilter ref="A1:D43" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pizza"/>
@@ -874,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -928,12 +928,12 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
@@ -948,10 +948,10 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
@@ -966,10 +966,10 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -984,17 +984,17 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>45603</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1002,17 +1002,17 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>45603</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1020,17 +1020,17 @@
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>45603</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>45603</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1058,13 +1058,13 @@
         <v>45610</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1078,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1086,13 +1086,13 @@
         <v>45610</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1100,13 +1100,13 @@
         <v>45610</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1114,13 +1114,13 @@
         <v>45610</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1156,13 +1156,13 @@
         <v>45610</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1170,13 +1170,13 @@
         <v>45617</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1190,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1198,13 +1198,13 @@
         <v>45617</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1212,13 +1212,13 @@
         <v>45617</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1240,13 +1240,13 @@
         <v>45644</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1254,13 +1254,13 @@
         <v>45644</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1282,13 +1282,13 @@
         <v>45674</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1296,13 +1296,13 @@
         <v>45674</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1310,13 +1310,13 @@
         <v>45674</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1352,13 +1352,13 @@
         <v>45674</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1366,31 +1366,31 @@
         <v>45680</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2">
         <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="24">
+      <c r="A34" s="14">
         <v>45687</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="24">
+      <c r="A35" s="14">
         <v>45687</v>
       </c>
       <c r="B35" t="s">
@@ -1400,11 +1400,11 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="24">
+      <c r="A36" s="14">
         <v>45687</v>
       </c>
       <c r="B36" t="s">
@@ -1414,40 +1414,106 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="24">
+      <c r="A37" s="14">
         <v>45687</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C38" s="2"/>
+      <c r="A38" s="14">
+        <v>45695</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C39" s="2"/>
+      <c r="A39" s="14">
+        <v>45695</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C40" s="2"/>
+      <c r="A40" s="14">
+        <v>45695</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C41" s="2"/>
+      <c r="A41" s="14">
+        <v>45695</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="2"/>
+      <c r="A42" s="14">
+        <v>45695</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C43" s="2"/>
+      <c r="A43" s="14">
+        <v>45695</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C44" s="2"/>
@@ -4348,12 +4414,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="19.1328125" customWidth="1"/>
     <col min="3" max="3" width="13.1328125" customWidth="1"/>
     <col min="4" max="12" width="11.53125" customWidth="1"/>
@@ -4370,37 +4437,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -4417,19 +4484,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -4463,13 +4530,13 @@
       </c>
       <c r="C3" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -4484,12 +4551,12 @@
         <v>45603</v>
       </c>
       <c r="O3" s="5"/>
-      <c r="P3" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="16"/>
+      <c r="P3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="17"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -4511,19 +4578,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -4535,10 +4602,10 @@
         <v>45603</v>
       </c>
       <c r="O4" s="5"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="19"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="20"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -4560,16 +4627,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -4582,10 +4649,10 @@
         <v>45603</v>
       </c>
       <c r="O5" s="5"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="19"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="20"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -4604,13 +4671,13 @@
       </c>
       <c r="C6" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>10</v>
@@ -4627,10 +4694,10 @@
         <v>45603</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="20"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -4641,30 +4708,27 @@
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
-        <v>Parmigiana senza zola</v>
+        <v>Parmigiana</v>
       </c>
       <c r="B7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Parmigiana senza zola</v>
+        <v>Parmigiana</v>
       </c>
       <c r="C7" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -4676,10 +4740,10 @@
         <v>45603</v>
       </c>
       <c r="O7" s="5"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="22"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="23"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -4698,19 +4762,19 @@
       </c>
       <c r="C8" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -4748,16 +4812,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -4795,13 +4859,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -4840,16 +4904,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -4887,13 +4951,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -4929,19 +4993,19 @@
       </c>
       <c r="C13" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -4979,19 +5043,19 @@
         <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -5028,22 +5092,22 @@
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -5079,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -5124,13 +5188,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -5157,19 +5221,19 @@
         <v>1</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -5191,16 +5255,16 @@
       </c>
       <c r="C19" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pozzi\Documents\Projects\pizza_chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CC4411-F645-4B6F-8D8F-108DDD021EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB34118-16F3-4A3C-83F1-852D662EFB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Append the last order to the bottom of the table. The </t>
     </r>
@@ -97,6 +98,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Pizza</t>
     </r>
@@ -105,6 +107,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> sheet is automatically updated. The </t>
     </r>
@@ -114,6 +117,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Topping</t>
     </r>
@@ -122,6 +126,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> sheet is not implemented yet.</t>
     </r>
@@ -231,6 +236,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Unique pizzas are reported, with the cumulative count of pizza ordered.
 Manually update the list of toppings. 
@@ -241,6 +247,7 @@
         <sz val="11"/>
         <color rgb="FFFF7128"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">orange </t>
     </r>
@@ -249,6 +256,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">the toppings that have to be added to the </t>
     </r>
@@ -258,6 +266,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>assets</t>
     </r>
@@ -266,6 +275,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> folder.
 Highlight in </t>
@@ -275,6 +285,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">red </t>
     </r>
@@ -283,6 +294,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>the toppings that are not meant to be added (e.g. difficult to be properly represented).</t>
     </r>
@@ -335,6 +347,15 @@
   <si>
     <t>Parmigiana</t>
   </si>
+  <si>
+    <t>Topping</t>
+  </si>
+  <si>
+    <t>Tonno e cipolle</t>
+  </si>
+  <si>
+    <t>Cipolle</t>
+  </si>
 </sst>
 </file>
 
@@ -343,7 +364,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,37 +382,51 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF7128"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -505,59 +540,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -612,14 +669,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Orders-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
     <tableStyle name="Pizza-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -634,8 +691,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D43">
-  <autoFilter ref="A1:D43" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D48">
+  <autoFilter ref="A1:D48" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pizza"/>
@@ -650,7 +707,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Pizza" displayName="Pizza" ref="B1:N30">
   <autoFilter ref="B1:N30" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Pizza" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Pizza" dataDxfId="2">
       <calculatedColumnFormula>IF(ISBLANK($A2),"",A2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="#">
@@ -671,6 +728,20 @@
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Pizza-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{059190CA-D5F2-4C53-AAC4-9A69D67CCF89}" name="Tabella3" displayName="Tabella3" ref="C1:E30" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="C1:E30" xr:uid="{059190CA-D5F2-4C53-AAC4-9A69D67CCF89}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{87983C1C-3549-4285-997A-37A10C84EBB5}" name="Topping" dataDxfId="0">
+      <calculatedColumnFormula>IF(ISBLANK($B2),"",B2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{3D4895BF-83C9-4AC1-8CE8-C1C610472A5E}" name="#"/>
+    <tableColumn id="3" xr3:uid="{6774285D-0DF4-4863-9D33-E763332474B9}" name="Added on"/>
+  </tableColumns>
+  <tableStyleInfo name="Orders-style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -874,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -928,12 +999,12 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
@@ -948,10 +1019,10 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
@@ -966,10 +1037,10 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -984,10 +1055,10 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
@@ -1002,10 +1073,10 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
@@ -1020,10 +1091,10 @@
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
@@ -1516,19 +1587,74 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C44" s="2"/>
+      <c r="A44" s="14">
+        <v>45702</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="2"/>
+      <c r="A45" s="14">
+        <v>45702</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C46" s="2"/>
+      <c r="A46" s="14">
+        <v>45702</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C47" s="2"/>
+      <c r="A47" s="14">
+        <v>45702</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C48" s="2"/>
+      <c r="A48" s="14">
+        <v>45702</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="49" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C49" s="2"/>
@@ -4414,13 +4540,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1328125" customWidth="1"/>
     <col min="3" max="3" width="13.1328125" customWidth="1"/>
     <col min="4" max="12" width="11.53125" customWidth="1"/>
@@ -4472,7 +4598,7 @@
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A19">_xlfn.UNIQUE(Orders[Pizza])</f>
+        <f t="array" ref="A2:A20">_xlfn.UNIQUE(Orders[Pizza])</f>
         <v>Siciliana</v>
       </c>
       <c r="B2" s="5" t="str">
@@ -4551,12 +4677,12 @@
         <v>45603</v>
       </c>
       <c r="O3" s="5"/>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="18"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -4602,10 +4728,10 @@
         <v>45603</v>
       </c>
       <c r="O4" s="5"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="20"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -4649,10 +4775,10 @@
         <v>45603</v>
       </c>
       <c r="O5" s="5"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="20"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -4694,10 +4820,10 @@
         <v>45603</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="20"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="21"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -4740,10 +4866,10 @@
         <v>45603</v>
       </c>
       <c r="O7" s="5"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="23"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="24"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -4762,7 +4888,7 @@
       </c>
       <c r="C8" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>35</v>
@@ -4993,7 +5119,7 @@
       </c>
       <c r="C13" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>35</v>
@@ -5140,7 +5266,7 @@
       </c>
       <c r="C16" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>35</v>
@@ -5185,7 +5311,7 @@
       </c>
       <c r="C17" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>35</v>
@@ -5279,27 +5405,38 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" t="str">
+        <v>Tonno e cipolle</v>
+      </c>
       <c r="B20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C20" s="6" t="str">
+        <v>Tonno e cipolle</v>
+      </c>
+      <c r="C20" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v/>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="8" t="str">
+      <c r="N20" s="8">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
-        <v/>
+        <v>45702</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -7716,47 +7853,359 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="26" width="8.73046875" customWidth="1"/>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="27" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A26">_xlfn.UNIQUE(_xlfn.TOCOL(Pizza[[Topping 1]:[Topping 10]]))</f>
+        <v>Pomodoro</v>
+      </c>
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:B25">_xlfn._xlws.FILTER(A:A,A:A&lt;&gt;0)</f>
+        <v>Pomodoro</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C30" si="0">IF(ISBLANK($B2),"",B2)</f>
+        <v>Pomodoro</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="str">
+        <v>Acciughe</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Acciughe</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>Acciughe</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" t="str">
+        <v>Olive</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Olive</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Olive</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" t="str">
+        <v>Capperi</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Capperi</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Capperi</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" t="str">
+        <v>Origano</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Origano</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Origano</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Mozzarella</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Mozzarella</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" t="str">
+        <v>Mozzarella</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pomodorini</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Pomodorini</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" t="str">
+        <v>Pomodorini</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Rucola</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Rucola</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" t="str">
+        <v>Rucola</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Grana</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Grana</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" t="str">
+        <v>Grana</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Taleggio</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Taleggio</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" t="str">
+        <v>Taleggio</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Funghi</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Funghi</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" t="str">
+        <v>Funghi</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Salame piccante</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Salame piccante</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" t="str">
+        <v>Salame piccante</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Melanzane</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Melanzane</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" t="str">
+        <v>Melanzane</v>
+      </c>
+      <c r="B15" t="str">
+        <v xml:space="preserve">Wurstel </v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Wurstel </v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" t="str">
+        <v xml:space="preserve">Wurstel </v>
+      </c>
+      <c r="B16" t="str">
+        <v>Patatine</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Patatine</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" t="str">
+        <v>Patatine</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Speck</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Speck</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" t="str">
+        <v>Speck</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Scamorza</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Scamorza</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" t="str">
+        <v>Scamorza</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Tonno</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Tonno</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" t="str">
+        <v>Tonno</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Bufala</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>Bufala</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" t="str">
+        <v>Bufala</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Salsiccia</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>Salsiccia</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" t="str">
+        <v>Salsiccia</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Prosciutto</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>Prosciutto</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" t="str">
+        <v>Prosciutto</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Carciofini</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>Carciofini</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" t="str">
+        <v>Carciofini</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Gorgonzola</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>Gorgonzola</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" t="str">
+        <v>Gorgonzola</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Cipolle</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>Cipolle</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" t="str">
+        <v>Cipolle</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8728,5 +9177,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pozzi\Documents\Projects\pizza_chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB34118-16F3-4A3C-83F1-852D662EFB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44ACF07-B963-4360-AEC2-BF1431608CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -540,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -575,6 +575,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -691,8 +694,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D48">
-  <autoFilter ref="A1:D48" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D53">
+  <autoFilter ref="A1:D53" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pizza"/>
@@ -945,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -999,12 +1002,12 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
@@ -1019,10 +1022,10 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
@@ -1037,10 +1040,10 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -1055,10 +1058,10 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
@@ -1073,10 +1076,10 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
@@ -1091,10 +1094,10 @@
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
@@ -1656,52 +1659,107 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="14">
+        <v>45713</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="14">
+        <v>45713</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="14">
+        <v>45713</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="14">
+        <v>45713</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="14">
+        <v>45713</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -4541,7 +4599,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4598,7 +4656,7 @@
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A20">_xlfn.UNIQUE(Orders[Pizza])</f>
+        <f t="array" ref="A2:A21">_xlfn.UNIQUE(Orders[Pizza])</f>
         <v>Siciliana</v>
       </c>
       <c r="B2" s="5" t="str">
@@ -4656,7 +4714,7 @@
       </c>
       <c r="C3" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>35</v>
@@ -4677,12 +4735,12 @@
         <v>45603</v>
       </c>
       <c r="O3" s="5"/>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="19"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -4728,10 +4786,10 @@
         <v>45603</v>
       </c>
       <c r="O4" s="5"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="22"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -4775,10 +4833,10 @@
         <v>45603</v>
       </c>
       <c r="O5" s="5"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="21"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="22"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -4797,7 +4855,7 @@
       </c>
       <c r="C6" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>35</v>
@@ -4820,10 +4878,10 @@
         <v>45603</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="22"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -4866,10 +4924,10 @@
         <v>45603</v>
       </c>
       <c r="O7" s="5"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="24"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="25"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -4888,7 +4946,7 @@
       </c>
       <c r="C8" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>35</v>
@@ -5381,7 +5439,7 @@
       </c>
       <c r="C19" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>35</v>
@@ -5440,17 +5498,26 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="16" t="str">
+        <v>Speck</v>
+      </c>
       <c r="B21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C21" s="6" t="str">
+        <v>Speck</v>
+      </c>
+      <c r="C21" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v/>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -5458,9 +5525,9 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="8" t="str">
+      <c r="N21" s="8">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
-        <v/>
+        <v>45713</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pozzi\Documents\Projects\pizza_chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44ACF07-B963-4360-AEC2-BF1431608CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B19183-F288-4F69-B65B-DFC3F6888DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -694,8 +694,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D53">
-  <autoFilter ref="A1:D53" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D59">
+  <autoFilter ref="A1:D59" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pizza"/>
@@ -948,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1730,22 +1730,88 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C54" s="2"/>
+      <c r="A54" s="14">
+        <v>45723</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C55" s="2"/>
+      <c r="A55" s="14">
+        <v>45723</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C56" s="2"/>
+      <c r="A56" s="14">
+        <v>45723</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C57" s="2"/>
+      <c r="A57" s="14">
+        <v>45723</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C58" s="2"/>
+      <c r="A58" s="14">
+        <v>45723</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C59" s="2"/>
+      <c r="A59" s="14">
+        <v>45723</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C60" s="2"/>
@@ -4599,7 +4665,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4714,7 +4780,7 @@
       </c>
       <c r="C3" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>35</v>
@@ -4855,7 +4921,7 @@
       </c>
       <c r="C6" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>35</v>
@@ -4946,7 +5012,7 @@
       </c>
       <c r="C8" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>35</v>
@@ -5177,7 +5243,7 @@
       </c>
       <c r="C13" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>35</v>
@@ -5273,7 +5339,7 @@
       </c>
       <c r="C15" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>35</v>
@@ -5324,7 +5390,7 @@
       </c>
       <c r="C16" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>35</v>
@@ -7922,13 +7988,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="8.73046875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="13.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.86328125" bestFit="1" customWidth="1"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pozzi\Documents\Projects\pizza_chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B19183-F288-4F69-B65B-DFC3F6888DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE28132C-2659-4C35-95FF-CB93A7DA8F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -694,8 +694,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D59">
-  <autoFilter ref="A1:D59" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D60">
+  <autoFilter ref="A1:D60" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pizza"/>
@@ -948,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1814,7 +1814,18 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C60" s="2"/>
+      <c r="A60" s="14">
+        <v>45723</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C61" s="2"/>
@@ -4966,7 +4977,7 @@
       </c>
       <c r="C7" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>35</v>
@@ -7988,7 +7999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pozzi\Documents\Projects\pizza_chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE28132C-2659-4C35-95FF-CB93A7DA8F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA14B90-E2BA-4301-AFC7-160A6FB5CF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="11512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>Cipolle</t>
+  </si>
+  <si>
+    <t>Verdure</t>
   </si>
 </sst>
 </file>
@@ -694,8 +697,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D60">
-  <autoFilter ref="A1:D60" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D65">
+  <autoFilter ref="A1:D65" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pizza"/>
@@ -946,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:I1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1828,63 +1831,118 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C61" s="2"/>
+      <c r="A61" s="14">
+        <v>45730</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C62" s="2"/>
+      <c r="A62" s="14">
+        <v>45730</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C63" s="2"/>
+      <c r="A63" s="14">
+        <v>45730</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="14">
+        <v>45730</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="14">
+        <v>45730</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -4646,13 +4704,22 @@
     </row>
     <row r="1000" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C1000" s="2"/>
+    </row>
+    <row r="1001" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C1001" s="2"/>
+    </row>
+    <row r="1002" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C1002" s="2"/>
+    </row>
+    <row r="1003" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C1003" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F3:I8"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:A100">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="A2:A103">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4733,7 +4800,7 @@
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A21">_xlfn.UNIQUE(Orders[Pizza])</f>
+        <f t="array" ref="A2:A22">_xlfn.UNIQUE(Orders[Pizza])</f>
         <v>Siciliana</v>
       </c>
       <c r="B2" s="5" t="str">
@@ -4791,7 +4858,7 @@
       </c>
       <c r="C3" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>35</v>
@@ -4977,7 +5044,7 @@
       </c>
       <c r="C7" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>35</v>
@@ -5023,7 +5090,7 @@
       </c>
       <c r="C8" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>35</v>
@@ -5301,7 +5368,7 @@
       </c>
       <c r="C14" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>35</v>
@@ -5608,13 +5675,16 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" t="str">
+        <v>Verdure</v>
+      </c>
       <c r="B22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C22" s="6" t="str">
+        <v>Verdure</v>
+      </c>
+      <c r="C22" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -5626,9 +5696,9 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="8" t="str">
+      <c r="N22" s="8">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
-        <v/>
+        <v>45730</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -5826,7 +5896,7 @@
     <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B31,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B31,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B31,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B31,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D31" s="6"/>
@@ -5844,7 +5914,7 @@
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B32,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B32,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B32,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B32,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D32" s="6"/>
@@ -5862,7 +5932,7 @@
     <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B33,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B33,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B33,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B33,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D33" s="6"/>
@@ -5880,7 +5950,7 @@
     <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B34,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B34,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B34,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B34,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D34" s="6"/>
@@ -5898,7 +5968,7 @@
     <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B35,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B35,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B35,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B35,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D35" s="6"/>
@@ -5916,7 +5986,7 @@
     <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B36,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B36,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B36,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B36,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D36" s="6"/>
@@ -5934,7 +6004,7 @@
     <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B37,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B37,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B37,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B37,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D37" s="6"/>
@@ -5952,7 +6022,7 @@
     <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B38,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B38,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B38,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B38,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D38" s="6"/>
@@ -5970,7 +6040,7 @@
     <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B39,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B39,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B39,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B39,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D39" s="6"/>
@@ -5988,7 +6058,7 @@
     <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B40,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B40,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B40,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B40,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D40" s="6"/>
@@ -6006,7 +6076,7 @@
     <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B41,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B41,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B41,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B41,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D41" s="6"/>
@@ -6024,7 +6094,7 @@
     <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B42,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B42,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B42,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B42,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D42" s="6"/>
@@ -6042,7 +6112,7 @@
     <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B43,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B43,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B43,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B43,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D43" s="6"/>
@@ -6060,7 +6130,7 @@
     <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B44,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B44,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B44,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B44,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D44" s="6"/>
@@ -6078,7 +6148,7 @@
     <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B45,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B45,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B45,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B45,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D45" s="6"/>
@@ -6096,7 +6166,7 @@
     <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B46,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B46,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B46,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B46,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D46" s="6"/>
@@ -6114,7 +6184,7 @@
     <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B47,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B47,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B47,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B47,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D47" s="6"/>
@@ -6132,7 +6202,7 @@
     <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B48,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B48,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B48,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B48,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D48" s="6"/>
@@ -6150,7 +6220,7 @@
     <row r="49" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B49,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B49,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B49,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B49,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D49" s="6"/>
@@ -6168,7 +6238,7 @@
     <row r="50" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B50,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B50,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B50,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B50,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D50" s="6"/>
@@ -6186,7 +6256,7 @@
     <row r="51" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B51,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B51,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B51,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B51,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D51" s="6"/>
@@ -6204,7 +6274,7 @@
     <row r="52" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B52,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B52,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B52,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B52,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D52" s="6"/>
@@ -6222,7 +6292,7 @@
     <row r="53" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B53,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B53,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B53,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B53,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D53" s="6"/>
@@ -6240,7 +6310,7 @@
     <row r="54" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B54,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B54,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B54,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B54,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D54" s="6"/>
@@ -6258,7 +6328,7 @@
     <row r="55" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B55,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B55,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B55,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B55,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D55" s="6"/>
@@ -6276,7 +6346,7 @@
     <row r="56" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B56,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B56,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B56,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B56,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D56" s="6"/>
@@ -6294,7 +6364,7 @@
     <row r="57" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B57,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B57,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B57,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B57,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D57" s="6"/>
@@ -6312,7 +6382,7 @@
     <row r="58" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B58,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B58,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B58,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B58,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D58" s="6"/>
@@ -6330,7 +6400,7 @@
     <row r="59" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B59,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B59,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B59,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B59,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D59" s="6"/>
@@ -6348,7 +6418,7 @@
     <row r="60" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B60,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B60,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B60,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B60,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D60" s="6"/>
@@ -6366,7 +6436,7 @@
     <row r="61" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B61,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B61,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B61,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B61,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D61" s="6"/>
@@ -6384,7 +6454,7 @@
     <row r="62" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B62,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B62,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B62,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B62,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D62" s="6"/>
@@ -6402,7 +6472,7 @@
     <row r="63" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B63,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B63,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B63,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B63,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D63" s="6"/>
@@ -6420,7 +6490,7 @@
     <row r="64" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B64,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B64,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B64,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B64,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D64" s="6"/>
@@ -6438,7 +6508,7 @@
     <row r="65" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B65,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B65,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B65,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B65,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D65" s="6"/>
@@ -6456,7 +6526,7 @@
     <row r="66" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B66,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B66,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B66,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B66,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D66" s="6"/>
@@ -6474,7 +6544,7 @@
     <row r="67" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B67,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B67,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B67,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B67,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D67" s="6"/>
@@ -6492,7 +6562,7 @@
     <row r="68" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B68,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B68,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B68,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B68,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D68" s="6"/>
@@ -6510,7 +6580,7 @@
     <row r="69" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B69,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B69,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B69,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B69,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D69" s="6"/>
@@ -6528,7 +6598,7 @@
     <row r="70" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B70,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B70,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B70,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B70,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D70" s="6"/>
@@ -6546,7 +6616,7 @@
     <row r="71" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B71,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B71,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B71,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B71,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D71" s="6"/>
@@ -6564,7 +6634,7 @@
     <row r="72" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B72,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B72,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B72,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B72,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D72" s="6"/>
@@ -6582,7 +6652,7 @@
     <row r="73" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B73,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B73,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B73,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B73,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D73" s="6"/>
@@ -6600,7 +6670,7 @@
     <row r="74" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B74,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B74,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B74,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B74,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D74" s="6"/>
@@ -6618,7 +6688,7 @@
     <row r="75" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B75,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B75,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B75,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B75,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D75" s="6"/>
@@ -6636,7 +6706,7 @@
     <row r="76" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B76,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B76,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B76,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B76,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D76" s="6"/>
@@ -6654,7 +6724,7 @@
     <row r="77" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B77,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B77,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B77,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B77,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D77" s="6"/>
@@ -6672,7 +6742,7 @@
     <row r="78" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B78,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B78,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B78,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B78,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D78" s="6"/>
@@ -6690,7 +6760,7 @@
     <row r="79" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="6"/>
       <c r="C79" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B79,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B79,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B79,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B79,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D79" s="6"/>
@@ -6708,7 +6778,7 @@
     <row r="80" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B80,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B80,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B80,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B80,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D80" s="6"/>
@@ -6726,7 +6796,7 @@
     <row r="81" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="6"/>
       <c r="C81" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B81,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B81,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B81,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B81,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D81" s="6"/>
@@ -6744,7 +6814,7 @@
     <row r="82" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="6"/>
       <c r="C82" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B82,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B82,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B82,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B82,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D82" s="6"/>
@@ -6762,7 +6832,7 @@
     <row r="83" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="6"/>
       <c r="C83" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B83,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B83,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B83,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B83,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D83" s="6"/>
@@ -6780,7 +6850,7 @@
     <row r="84" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B84,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B84,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B84,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B84,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D84" s="6"/>
@@ -6798,7 +6868,7 @@
     <row r="85" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="6"/>
       <c r="C85" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B85,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B85,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B85,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B85,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D85" s="6"/>
@@ -6816,7 +6886,7 @@
     <row r="86" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="6"/>
       <c r="C86" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B86,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B86,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B86,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B86,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D86" s="6"/>
@@ -6834,7 +6904,7 @@
     <row r="87" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="6"/>
       <c r="C87" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B87,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B87,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B87,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B87,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D87" s="6"/>
@@ -6852,7 +6922,7 @@
     <row r="88" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B88,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B88,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B88,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B88,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D88" s="6"/>
@@ -6870,7 +6940,7 @@
     <row r="89" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B89,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B89,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B89,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B89,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D89" s="6"/>
@@ -6888,7 +6958,7 @@
     <row r="90" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="6"/>
       <c r="C90" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B90,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B90,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B90,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B90,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D90" s="6"/>
@@ -6906,7 +6976,7 @@
     <row r="91" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="6"/>
       <c r="C91" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B91,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B91,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B91,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B91,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D91" s="6"/>
@@ -6924,7 +6994,7 @@
     <row r="92" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B92,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B92,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B92,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B92,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D92" s="6"/>
@@ -6942,7 +7012,7 @@
     <row r="93" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="6"/>
       <c r="C93" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B93,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B93,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B93,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B93,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D93" s="6"/>
@@ -6960,7 +7030,7 @@
     <row r="94" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="6"/>
       <c r="C94" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B94,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B94,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B94,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B94,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D94" s="6"/>
@@ -6978,7 +7048,7 @@
     <row r="95" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="6"/>
       <c r="C95" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B95,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B95,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B95,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B95,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D95" s="6"/>
@@ -6996,7 +7066,7 @@
     <row r="96" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="6"/>
       <c r="C96" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B96,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B96,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B96,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B96,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D96" s="6"/>
@@ -7014,7 +7084,7 @@
     <row r="97" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="6"/>
       <c r="C97" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B97,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B97,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B97,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B97,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D97" s="6"/>
@@ -7032,7 +7102,7 @@
     <row r="98" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="6"/>
       <c r="C98" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B98,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B98,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B98,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B98,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D98" s="6"/>
@@ -7050,7 +7120,7 @@
     <row r="99" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="6"/>
       <c r="C99" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B99,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B99,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B99,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B99,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D99" s="6"/>
@@ -7068,7 +7138,7 @@
     <row r="100" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="6"/>
       <c r="C100" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$100,B100,Orders!$C$2:$C$100)=0,"",SUMIF(Orders!$B$2:$B$100,B100,Orders!$C$2:$C$100))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$103,B100,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B100,Orders!$C$2:$C$103))</f>
         <v/>
       </c>
       <c r="D100" s="6"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pozzi\Documents\Projects\pizza_chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA14B90-E2BA-4301-AFC7-160A6FB5CF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC10828F-AFC7-4BE7-BD98-F3AB9E805006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="11512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -130,9 +130,6 @@
       </rPr>
       <t xml:space="preserve"> sheet is not implemented yet.</t>
     </r>
-  </si>
-  <si>
-    <t>Fresca</t>
   </si>
   <si>
     <t>Taleggio e porcini</t>
@@ -359,6 +356,12 @@
   <si>
     <t>Verdure</t>
   </si>
+  <si>
+    <t>Zucchine</t>
+  </si>
+  <si>
+    <t>Peperoni</t>
+  </si>
 </sst>
 </file>
 
@@ -367,11 +370,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -543,56 +553,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -697,8 +711,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D65">
-  <autoFilter ref="A1:D65" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D67">
+  <autoFilter ref="A1:D67" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pizza"/>
@@ -949,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1003"/>
+  <dimension ref="A1:I1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1016,8 +1030,8 @@
       <c r="A4" s="3">
         <v>45603</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
+      <c r="B4" s="27" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1035,7 +1049,7 @@
         <v>45603</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1053,7 +1067,7 @@
         <v>45603</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1071,7 +1085,7 @@
         <v>45603</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1089,7 +1103,7 @@
         <v>45603</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1107,7 +1121,7 @@
         <v>45603</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1121,7 +1135,7 @@
         <v>45603</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1135,13 +1149,13 @@
         <v>45610</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1155,7 +1169,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1163,13 +1177,13 @@
         <v>45610</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1177,13 +1191,13 @@
         <v>45610</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1191,13 +1205,13 @@
         <v>45610</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1205,13 +1219,13 @@
         <v>45610</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1225,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1233,13 +1247,13 @@
         <v>45610</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1247,13 +1261,13 @@
         <v>45617</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1267,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1275,13 +1289,13 @@
         <v>45617</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1289,13 +1303,13 @@
         <v>45617</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1303,13 +1317,13 @@
         <v>45617</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1317,13 +1331,13 @@
         <v>45644</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1331,13 +1345,13 @@
         <v>45644</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1351,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1359,13 +1373,13 @@
         <v>45674</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1373,13 +1387,13 @@
         <v>45674</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1387,13 +1401,13 @@
         <v>45674</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1401,13 +1415,13 @@
         <v>45674</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1421,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1429,13 +1443,13 @@
         <v>45674</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1443,13 +1457,13 @@
         <v>45680</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" s="2">
         <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1457,13 +1471,13 @@
         <v>45687</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1477,7 +1491,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1485,13 +1499,13 @@
         <v>45687</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1499,13 +1513,13 @@
         <v>45687</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1513,13 +1527,13 @@
         <v>45695</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="2">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1533,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1541,13 +1555,13 @@
         <v>45695</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="2">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1555,13 +1569,13 @@
         <v>45695</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1569,13 +1583,13 @@
         <v>45695</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="2">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1583,13 +1597,13 @@
         <v>45695</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1597,13 +1611,13 @@
         <v>45702</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1611,13 +1625,13 @@
         <v>45702</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" s="2">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1625,13 +1639,13 @@
         <v>45702</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1639,13 +1653,13 @@
         <v>45702</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1653,13 +1667,13 @@
         <v>45702</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2">
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1681,7 +1695,7 @@
         <v>45713</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -1695,7 +1709,7 @@
         <v>45713</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -1709,7 +1723,7 @@
         <v>45713</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -1723,7 +1737,7 @@
         <v>45713</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -1737,13 +1751,13 @@
         <v>45723</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1757,7 +1771,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1765,13 +1779,13 @@
         <v>45723</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1779,13 +1793,13 @@
         <v>45723</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1793,13 +1807,13 @@
         <v>45723</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1807,13 +1821,13 @@
         <v>45723</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" s="2">
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1821,13 +1835,13 @@
         <v>45723</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1835,13 +1849,13 @@
         <v>45730</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61" s="2">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1855,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1863,13 +1877,13 @@
         <v>45730</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1877,13 +1891,13 @@
         <v>45730</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1891,20 +1905,42 @@
         <v>45730</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C66" s="2"/>
+      <c r="A66" s="14">
+        <v>45744</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C67" s="2"/>
+      <c r="A67" s="14">
+        <v>45744</v>
+      </c>
+      <c r="B67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C68" s="2"/>
@@ -4713,13 +4749,19 @@
     </row>
     <row r="1003" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C1003" s="2"/>
+    </row>
+    <row r="1004" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C1004" s="2"/>
+    </row>
+    <row r="1005" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C1005" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F3:I8"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:A103">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="A2:A105">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4742,13 +4784,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="16" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="19.1328125" customWidth="1"/>
     <col min="3" max="3" width="13.1328125" customWidth="1"/>
     <col min="4" max="12" width="11.53125" customWidth="1"/>
@@ -4765,42 +4807,42 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A22">_xlfn.UNIQUE(Orders[Pizza])</f>
+      <c r="A2" s="16" t="str" cm="1">
+        <f t="array" ref="A2:A21">_xlfn.UNIQUE(Orders[Pizza])</f>
         <v>Siciliana</v>
       </c>
       <c r="B2" s="5" t="str">
@@ -4812,19 +4854,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -4849,7 +4891,7 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" t="str">
+      <c r="A3" s="16" t="str">
         <v>Margherita</v>
       </c>
       <c r="B3" s="6" t="str">
@@ -4861,10 +4903,10 @@
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -4880,7 +4922,7 @@
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
@@ -4894,31 +4936,31 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" t="str">
-        <v>Fresca</v>
+      <c r="A4" s="16" t="str">
+        <v>Tricolore</v>
       </c>
       <c r="B4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Fresca</v>
+        <v>Tricolore</v>
       </c>
       <c r="C4" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -4943,7 +4985,7 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" t="str">
+      <c r="A5" s="16" t="str">
         <v>Taleggio e porcini</v>
       </c>
       <c r="B5" s="6" t="str">
@@ -4955,16 +4997,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -4990,7 +5032,7 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" t="str">
+      <c r="A6" s="16" t="str">
         <v>Salame piccante</v>
       </c>
       <c r="B6" s="6" t="str">
@@ -5002,13 +5044,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -5035,7 +5077,7 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" t="str">
+      <c r="A7" s="16" t="str">
         <v>Parmigiana</v>
       </c>
       <c r="B7" s="6" t="str">
@@ -5047,16 +5089,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -5081,7 +5123,7 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" t="str">
+      <c r="A8" s="16" t="str">
         <v>Wurstel e patatine</v>
       </c>
       <c r="B8" s="6" t="str">
@@ -5093,16 +5135,16 @@
         <v>34</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5128,7 +5170,7 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" t="str">
+      <c r="A9" s="16" t="str">
         <v>Speck e scamorza</v>
       </c>
       <c r="B9" s="6" t="str">
@@ -5140,16 +5182,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5175,7 +5217,7 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" t="str">
+      <c r="A10" s="16" t="str">
         <v>Tonno</v>
       </c>
       <c r="B10" s="6" t="str">
@@ -5187,13 +5229,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -5220,7 +5262,7 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" t="str">
+      <c r="A11" s="16" t="str">
         <v>Bufala e salsiccia</v>
       </c>
       <c r="B11" s="6" t="str">
@@ -5232,16 +5274,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5267,7 +5309,7 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" t="str">
+      <c r="A12" s="16" t="str">
         <v>Porcini</v>
       </c>
       <c r="B12" s="6" t="str">
@@ -5279,13 +5321,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -5312,7 +5354,7 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" t="str">
+      <c r="A13" s="16" t="str">
         <v>Prosciutto e funghi</v>
       </c>
       <c r="B13" s="6" t="str">
@@ -5321,19 +5363,19 @@
       </c>
       <c r="C13" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -5359,40 +5401,42 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" t="str">
-        <v>Tricolore</v>
+      <c r="A14" s="16" t="str">
+        <v>Quattro stagioni</v>
       </c>
       <c r="B14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Tricolore</v>
+        <v>Quattro stagioni</v>
       </c>
       <c r="C14" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="8">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
-        <v>45610</v>
+        <v>45617</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -5408,35 +5452,29 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" t="str">
-        <v>Quattro stagioni</v>
+      <c r="A15" s="16" t="str">
+        <v>Napoli</v>
       </c>
       <c r="B15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Quattro stagioni</v>
+        <v>Napoli</v>
       </c>
       <c r="C15" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -5459,25 +5497,25 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" t="str">
-        <v>Napoli</v>
+      <c r="A16" s="16" t="str">
+        <v>Prosciutto</v>
       </c>
       <c r="B16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Napoli</v>
+        <v>Prosciutto</v>
       </c>
       <c r="C16" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -5488,7 +5526,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="8">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
-        <v>45617</v>
+        <v>45644</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -5504,28 +5542,32 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" t="str">
-        <v>Prosciutto</v>
+      <c r="A17" s="16" t="str">
+        <v>Quattro formaggi</v>
       </c>
       <c r="B17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Prosciutto</v>
+        <v>Quattro formaggi</v>
       </c>
       <c r="C17" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -5533,36 +5575,32 @@
       <c r="M17" s="6"/>
       <c r="N17" s="8">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
-        <v>45644</v>
+        <v>45674</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" t="str">
-        <v>Quattro formaggi</v>
+      <c r="A18" s="16" t="str">
+        <v>Salsiccia e bufala</v>
       </c>
       <c r="B18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Quattro formaggi</v>
+        <v>Salsiccia e bufala</v>
       </c>
       <c r="C18" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -5570,31 +5608,33 @@
       <c r="M18" s="6"/>
       <c r="N18" s="8">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
-        <v>45674</v>
+        <v>45687</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" t="str">
-        <v>Salsiccia e bufala</v>
+      <c r="A19" s="16" t="str">
+        <v>Tonno e cipolle</v>
       </c>
       <c r="B19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Salsiccia e bufala</v>
+        <v>Tonno e cipolle</v>
       </c>
       <c r="C19" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -5603,33 +5643,31 @@
       <c r="M19" s="6"/>
       <c r="N19" s="8">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
-        <v>45687</v>
+        <v>45702</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" t="str">
-        <v>Tonno e cipolle</v>
+      <c r="A20" s="16" t="str">
+        <v>Speck</v>
       </c>
       <c r="B20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Tonno e cipolle</v>
+        <v>Speck</v>
       </c>
       <c r="C20" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -5638,32 +5676,36 @@
       <c r="M20" s="6"/>
       <c r="N20" s="8">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
-        <v>45702</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="str">
-        <v>Speck</v>
+        <v>Verdure</v>
       </c>
       <c r="B21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Speck</v>
+        <v>Verdure</v>
       </c>
       <c r="C21" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -5671,34 +5713,25 @@
       <c r="M21" s="6"/>
       <c r="N21" s="8">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
-        <v>45713</v>
+        <v>45730</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" t="str">
-        <v>Verdure</v>
-      </c>
       <c r="B22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Verdure</v>
-      </c>
-      <c r="C22" s="6">
+        <v/>
+      </c>
+      <c r="C22" s="6" t="str">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+        <v/>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="8">
+      <c r="N22" s="8" t="str">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
-        <v>45730</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -5896,7 +5929,7 @@
     <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B31,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B31,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B31,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B31,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D31" s="6"/>
@@ -5914,7 +5947,7 @@
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B32,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B32,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B32,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B32,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D32" s="6"/>
@@ -5932,7 +5965,7 @@
     <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B33,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B33,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B33,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B33,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D33" s="6"/>
@@ -5950,7 +5983,7 @@
     <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B34,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B34,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B34,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B34,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D34" s="6"/>
@@ -5968,7 +6001,7 @@
     <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B35,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B35,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B35,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B35,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D35" s="6"/>
@@ -5986,7 +6019,7 @@
     <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B36,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B36,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B36,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B36,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D36" s="6"/>
@@ -6004,7 +6037,7 @@
     <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B37,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B37,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B37,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B37,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D37" s="6"/>
@@ -6022,7 +6055,7 @@
     <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B38,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B38,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B38,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B38,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D38" s="6"/>
@@ -6040,7 +6073,7 @@
     <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B39,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B39,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B39,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B39,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D39" s="6"/>
@@ -6058,7 +6091,7 @@
     <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B40,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B40,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B40,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B40,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D40" s="6"/>
@@ -6076,7 +6109,7 @@
     <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B41,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B41,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B41,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B41,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D41" s="6"/>
@@ -6094,7 +6127,7 @@
     <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B42,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B42,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B42,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B42,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D42" s="6"/>
@@ -6112,7 +6145,7 @@
     <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B43,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B43,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B43,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B43,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D43" s="6"/>
@@ -6130,7 +6163,7 @@
     <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B44,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B44,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B44,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B44,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D44" s="6"/>
@@ -6148,7 +6181,7 @@
     <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B45,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B45,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B45,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B45,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D45" s="6"/>
@@ -6166,7 +6199,7 @@
     <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B46,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B46,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B46,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B46,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D46" s="6"/>
@@ -6184,7 +6217,7 @@
     <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B47,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B47,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B47,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B47,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D47" s="6"/>
@@ -6202,7 +6235,7 @@
     <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B48,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B48,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B48,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B48,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D48" s="6"/>
@@ -6220,7 +6253,7 @@
     <row r="49" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B49,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B49,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B49,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B49,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D49" s="6"/>
@@ -6238,7 +6271,7 @@
     <row r="50" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B50,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B50,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B50,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B50,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D50" s="6"/>
@@ -6256,7 +6289,7 @@
     <row r="51" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B51,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B51,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B51,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B51,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D51" s="6"/>
@@ -6274,7 +6307,7 @@
     <row r="52" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B52,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B52,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B52,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B52,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D52" s="6"/>
@@ -6292,7 +6325,7 @@
     <row r="53" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B53,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B53,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B53,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B53,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D53" s="6"/>
@@ -6310,7 +6343,7 @@
     <row r="54" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B54,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B54,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B54,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B54,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D54" s="6"/>
@@ -6328,7 +6361,7 @@
     <row r="55" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B55,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B55,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B55,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B55,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D55" s="6"/>
@@ -6346,7 +6379,7 @@
     <row r="56" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B56,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B56,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B56,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B56,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D56" s="6"/>
@@ -6364,7 +6397,7 @@
     <row r="57" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B57,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B57,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B57,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B57,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D57" s="6"/>
@@ -6382,7 +6415,7 @@
     <row r="58" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B58,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B58,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B58,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B58,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D58" s="6"/>
@@ -6400,7 +6433,7 @@
     <row r="59" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B59,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B59,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B59,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B59,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D59" s="6"/>
@@ -6418,7 +6451,7 @@
     <row r="60" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B60,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B60,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B60,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B60,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D60" s="6"/>
@@ -6436,7 +6469,7 @@
     <row r="61" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B61,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B61,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B61,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B61,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D61" s="6"/>
@@ -6454,7 +6487,7 @@
     <row r="62" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B62,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B62,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B62,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B62,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D62" s="6"/>
@@ -6472,7 +6505,7 @@
     <row r="63" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B63,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B63,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B63,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B63,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D63" s="6"/>
@@ -6490,7 +6523,7 @@
     <row r="64" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B64,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B64,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B64,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B64,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D64" s="6"/>
@@ -6508,7 +6541,7 @@
     <row r="65" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B65,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B65,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B65,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B65,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D65" s="6"/>
@@ -6526,7 +6559,7 @@
     <row r="66" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B66,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B66,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B66,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B66,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D66" s="6"/>
@@ -6544,7 +6577,7 @@
     <row r="67" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B67,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B67,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B67,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B67,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D67" s="6"/>
@@ -6562,7 +6595,7 @@
     <row r="68" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B68,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B68,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B68,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B68,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D68" s="6"/>
@@ -6580,7 +6613,7 @@
     <row r="69" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B69,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B69,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B69,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B69,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D69" s="6"/>
@@ -6598,7 +6631,7 @@
     <row r="70" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B70,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B70,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B70,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B70,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D70" s="6"/>
@@ -6616,7 +6649,7 @@
     <row r="71" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B71,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B71,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B71,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B71,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D71" s="6"/>
@@ -6634,7 +6667,7 @@
     <row r="72" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B72,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B72,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B72,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B72,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D72" s="6"/>
@@ -6652,7 +6685,7 @@
     <row r="73" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B73,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B73,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B73,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B73,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D73" s="6"/>
@@ -6670,7 +6703,7 @@
     <row r="74" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B74,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B74,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B74,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B74,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D74" s="6"/>
@@ -6688,7 +6721,7 @@
     <row r="75" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B75,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B75,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B75,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B75,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D75" s="6"/>
@@ -6706,7 +6739,7 @@
     <row r="76" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B76,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B76,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B76,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B76,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D76" s="6"/>
@@ -6724,7 +6757,7 @@
     <row r="77" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B77,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B77,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B77,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B77,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D77" s="6"/>
@@ -6742,7 +6775,7 @@
     <row r="78" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B78,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B78,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B78,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B78,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D78" s="6"/>
@@ -6760,7 +6793,7 @@
     <row r="79" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="6"/>
       <c r="C79" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B79,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B79,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B79,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B79,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D79" s="6"/>
@@ -6778,7 +6811,7 @@
     <row r="80" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B80,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B80,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B80,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B80,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D80" s="6"/>
@@ -6796,7 +6829,7 @@
     <row r="81" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="6"/>
       <c r="C81" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B81,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B81,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B81,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B81,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D81" s="6"/>
@@ -6814,7 +6847,7 @@
     <row r="82" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="6"/>
       <c r="C82" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B82,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B82,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B82,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B82,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D82" s="6"/>
@@ -6832,7 +6865,7 @@
     <row r="83" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="6"/>
       <c r="C83" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B83,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B83,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B83,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B83,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D83" s="6"/>
@@ -6850,7 +6883,7 @@
     <row r="84" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B84,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B84,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B84,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B84,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D84" s="6"/>
@@ -6868,7 +6901,7 @@
     <row r="85" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="6"/>
       <c r="C85" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B85,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B85,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B85,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B85,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D85" s="6"/>
@@ -6886,7 +6919,7 @@
     <row r="86" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="6"/>
       <c r="C86" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B86,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B86,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B86,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B86,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D86" s="6"/>
@@ -6904,7 +6937,7 @@
     <row r="87" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="6"/>
       <c r="C87" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B87,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B87,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B87,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B87,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D87" s="6"/>
@@ -6922,7 +6955,7 @@
     <row r="88" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B88,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B88,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B88,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B88,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D88" s="6"/>
@@ -6940,7 +6973,7 @@
     <row r="89" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B89,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B89,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B89,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B89,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D89" s="6"/>
@@ -6958,7 +6991,7 @@
     <row r="90" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="6"/>
       <c r="C90" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B90,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B90,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B90,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B90,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D90" s="6"/>
@@ -6976,7 +7009,7 @@
     <row r="91" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="6"/>
       <c r="C91" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B91,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B91,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B91,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B91,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D91" s="6"/>
@@ -6994,7 +7027,7 @@
     <row r="92" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B92,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B92,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B92,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B92,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D92" s="6"/>
@@ -7012,7 +7045,7 @@
     <row r="93" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="6"/>
       <c r="C93" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B93,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B93,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B93,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B93,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D93" s="6"/>
@@ -7030,7 +7063,7 @@
     <row r="94" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="6"/>
       <c r="C94" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B94,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B94,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B94,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B94,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D94" s="6"/>
@@ -7048,7 +7081,7 @@
     <row r="95" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="6"/>
       <c r="C95" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B95,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B95,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B95,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B95,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D95" s="6"/>
@@ -7066,7 +7099,7 @@
     <row r="96" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="6"/>
       <c r="C96" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B96,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B96,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B96,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B96,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D96" s="6"/>
@@ -7084,7 +7117,7 @@
     <row r="97" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="6"/>
       <c r="C97" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B97,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B97,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B97,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B97,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D97" s="6"/>
@@ -7102,7 +7135,7 @@
     <row r="98" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="6"/>
       <c r="C98" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B98,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B98,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B98,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B98,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D98" s="6"/>
@@ -7120,7 +7153,7 @@
     <row r="99" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="6"/>
       <c r="C99" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B99,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B99,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B99,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B99,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D99" s="6"/>
@@ -7138,7 +7171,7 @@
     <row r="100" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="6"/>
       <c r="C100" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$103,B100,Orders!$C$2:$C$103)=0,"",SUMIF(Orders!$B$2:$B$103,B100,Orders!$C$2:$C$103))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$105,B100,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B100,Orders!$C$2:$C$105))</f>
         <v/>
       </c>
       <c r="D100" s="6"/>
@@ -8086,22 +8119,22 @@
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="15"/>
       <c r="C1" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A26">_xlfn.UNIQUE(_xlfn.TOCOL(Pizza[[Topping 1]:[Topping 10]]))</f>
+        <f t="array" ref="A2:A28">_xlfn.UNIQUE(_xlfn.TOCOL(Pizza[[Topping 1]:[Topping 10]]))</f>
         <v>Pomodoro</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:B25">_xlfn._xlws.FILTER(A:A,A:A&lt;&gt;0)</f>
+        <f t="array" ref="B2:B27">_xlfn._xlws.FILTER(A:A,A:A&lt;&gt;0)</f>
         <v>Pomodoro</v>
       </c>
       <c r="C2" t="str">
@@ -8389,18 +8422,30 @@
       <c r="A26" t="str">
         <v>Cipolle</v>
       </c>
+      <c r="B26" t="str">
+        <v>Zucchine</v>
+      </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Zucchine</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" t="str">
+        <v>Zucchine</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Peperoni</v>
+      </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Peperoni</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" t="str">
+        <v>Peperoni</v>
+      </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pozzi\Documents\Projects\pizza_chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC10828F-AFC7-4BE7-BD98-F3AB9E805006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F29F34F-4432-4908-9198-7E17EB66B906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -362,6 +362,9 @@
   <si>
     <t>Peperoni</t>
   </si>
+  <si>
+    <t>Crocken</t>
+  </si>
 </sst>
 </file>
 
@@ -591,6 +594,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -603,10 +610,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -711,8 +714,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D67">
-  <autoFilter ref="A1:D67" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D71">
+  <autoFilter ref="A1:D71" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pizza"/>
@@ -965,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1019,18 +1022,18 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>45603</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="2">
@@ -1039,10 +1042,10 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
@@ -1057,10 +1060,10 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -1075,10 +1078,10 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
@@ -1093,10 +1096,10 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
@@ -1111,10 +1114,10 @@
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
@@ -1943,16 +1946,60 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C68" s="2"/>
+      <c r="A68" s="14">
+        <v>45758</v>
+      </c>
+      <c r="B68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C69" s="2"/>
+      <c r="A69" s="14">
+        <v>45758</v>
+      </c>
+      <c r="B69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C70" s="2"/>
+      <c r="A70" s="14">
+        <v>45758</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C71" s="2"/>
+      <c r="A71" s="14">
+        <v>45758</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C72" s="2"/>
@@ -4784,7 +4831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -4842,7 +4889,7 @@
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="str" cm="1">
-        <f t="array" ref="A2:A21">_xlfn.UNIQUE(Orders[Pizza])</f>
+        <f t="array" ref="A2:A22">_xlfn.UNIQUE(Orders[Pizza])</f>
         <v>Siciliana</v>
       </c>
       <c r="B2" s="5" t="str">
@@ -4921,12 +4968,12 @@
         <v>45603</v>
       </c>
       <c r="O3" s="5"/>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="19"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="21"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -4956,7 +5003,7 @@
       <c r="F4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="18" t="s">
         <v>42</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -4972,10 +5019,10 @@
         <v>45603</v>
       </c>
       <c r="O4" s="5"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="24"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -5019,10 +5066,10 @@
         <v>45603</v>
       </c>
       <c r="O5" s="5"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="24"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -5041,7 +5088,7 @@
       </c>
       <c r="C6" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>34</v>
@@ -5064,10 +5111,10 @@
         <v>45603</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="24"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -5110,10 +5157,10 @@
         <v>45603</v>
       </c>
       <c r="O7" s="5"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -5132,7 +5179,7 @@
       </c>
       <c r="C8" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>34</v>
@@ -5234,7 +5281,7 @@
       <c r="E10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="6"/>
@@ -5588,7 +5635,7 @@
       </c>
       <c r="C18" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>34</v>
@@ -5629,7 +5676,7 @@
       <c r="E19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -5717,21 +5764,24 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="16" t="str">
+        <v>Crocken</v>
+      </c>
       <c r="B22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C22" s="6" t="str">
+        <v>Crocken</v>
+      </c>
+      <c r="C22" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="8" t="str">
+      <c r="N22" s="8">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
-        <v/>
+        <v>45758</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pozzi\Documents\Projects\pizza_chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F29F34F-4432-4908-9198-7E17EB66B906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D282D2-C411-43A6-8E2B-0D09EC556261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -365,6 +365,9 @@
   <si>
     <t>Crocken</t>
   </si>
+  <si>
+    <t xml:space="preserve">Prosciutto </t>
+  </si>
 </sst>
 </file>
 
@@ -556,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -611,6 +614,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,8 +720,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D71">
-  <autoFilter ref="A1:D71" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D75">
+  <autoFilter ref="A1:D75" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pizza"/>
@@ -966,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1005"/>
+  <dimension ref="A1:I1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2002,16 +2008,60 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C72" s="2"/>
+      <c r="A72" s="14">
+        <v>45786</v>
+      </c>
+      <c r="B72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C73" s="2"/>
+      <c r="A73" s="14">
+        <v>45786</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="2">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C74" s="2"/>
+      <c r="A74" s="14">
+        <v>45786</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C75" s="2"/>
+      <c r="A75" s="14">
+        <v>45786</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C76" s="2"/>
@@ -4802,13 +4852,19 @@
     </row>
     <row r="1005" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C1005" s="2"/>
+    </row>
+    <row r="1006" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C1006" s="2"/>
+    </row>
+    <row r="1007" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C1007" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F3:I8"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:A105">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="A2:A107">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4831,8 +4887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5179,7 +5235,7 @@
       </c>
       <c r="C8" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>34</v>
@@ -5553,7 +5609,7 @@
       </c>
       <c r="C16" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>34</v>
@@ -5635,7 +5691,7 @@
       </c>
       <c r="C18" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>34</v>
@@ -5668,7 +5724,7 @@
       </c>
       <c r="C19" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>34</v>
@@ -5774,6 +5830,21 @@
       <c r="C22" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>1</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -5979,7 +6050,7 @@
     <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B31,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B31,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B31,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B31,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D31" s="6"/>
@@ -5997,7 +6068,7 @@
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B32,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B32,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B32,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B32,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D32" s="6"/>
@@ -6015,7 +6086,7 @@
     <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B33,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B33,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B33,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B33,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D33" s="6"/>
@@ -6033,7 +6104,7 @@
     <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B34,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B34,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B34,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B34,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D34" s="6"/>
@@ -6051,7 +6122,7 @@
     <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B35,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B35,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B35,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B35,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D35" s="6"/>
@@ -6069,7 +6140,7 @@
     <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B36,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B36,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B36,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B36,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D36" s="6"/>
@@ -6087,7 +6158,7 @@
     <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B37,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B37,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B37,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B37,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D37" s="6"/>
@@ -6105,7 +6176,7 @@
     <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B38,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B38,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B38,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B38,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D38" s="6"/>
@@ -6123,7 +6194,7 @@
     <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B39,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B39,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B39,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B39,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D39" s="6"/>
@@ -6141,7 +6212,7 @@
     <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B40,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B40,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B40,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B40,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D40" s="6"/>
@@ -6159,7 +6230,7 @@
     <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B41,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B41,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B41,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B41,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D41" s="6"/>
@@ -6177,7 +6248,7 @@
     <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B42,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B42,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B42,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B42,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D42" s="6"/>
@@ -6195,7 +6266,7 @@
     <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B43,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B43,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B43,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B43,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D43" s="6"/>
@@ -6213,7 +6284,7 @@
     <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B44,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B44,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B44,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B44,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D44" s="6"/>
@@ -6231,7 +6302,7 @@
     <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B45,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B45,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B45,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B45,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D45" s="6"/>
@@ -6249,7 +6320,7 @@
     <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B46,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B46,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B46,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B46,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D46" s="6"/>
@@ -6267,7 +6338,7 @@
     <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B47,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B47,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B47,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B47,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D47" s="6"/>
@@ -6285,7 +6356,7 @@
     <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B48,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B48,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B48,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B48,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D48" s="6"/>
@@ -6303,7 +6374,7 @@
     <row r="49" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B49,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B49,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B49,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B49,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D49" s="6"/>
@@ -6321,7 +6392,7 @@
     <row r="50" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B50,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B50,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B50,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B50,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D50" s="6"/>
@@ -6339,7 +6410,7 @@
     <row r="51" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B51,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B51,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B51,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B51,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D51" s="6"/>
@@ -6357,7 +6428,7 @@
     <row r="52" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B52,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B52,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B52,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B52,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D52" s="6"/>
@@ -6375,7 +6446,7 @@
     <row r="53" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B53,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B53,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B53,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B53,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D53" s="6"/>
@@ -6393,7 +6464,7 @@
     <row r="54" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B54,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B54,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B54,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B54,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D54" s="6"/>
@@ -6411,7 +6482,7 @@
     <row r="55" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B55,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B55,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B55,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B55,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D55" s="6"/>
@@ -6429,7 +6500,7 @@
     <row r="56" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B56,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B56,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B56,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B56,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D56" s="6"/>
@@ -6447,7 +6518,7 @@
     <row r="57" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B57,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B57,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B57,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B57,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D57" s="6"/>
@@ -6465,7 +6536,7 @@
     <row r="58" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B58,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B58,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B58,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B58,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D58" s="6"/>
@@ -6483,7 +6554,7 @@
     <row r="59" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B59,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B59,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B59,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B59,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D59" s="6"/>
@@ -6501,7 +6572,7 @@
     <row r="60" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B60,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B60,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B60,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B60,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D60" s="6"/>
@@ -6519,7 +6590,7 @@
     <row r="61" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B61,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B61,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B61,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B61,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D61" s="6"/>
@@ -6537,7 +6608,7 @@
     <row r="62" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B62,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B62,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B62,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B62,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D62" s="6"/>
@@ -6555,7 +6626,7 @@
     <row r="63" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B63,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B63,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B63,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B63,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D63" s="6"/>
@@ -6573,7 +6644,7 @@
     <row r="64" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B64,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B64,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B64,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B64,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D64" s="6"/>
@@ -6591,7 +6662,7 @@
     <row r="65" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B65,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B65,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B65,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B65,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D65" s="6"/>
@@ -6609,7 +6680,7 @@
     <row r="66" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B66,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B66,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B66,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B66,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D66" s="6"/>
@@ -6627,7 +6698,7 @@
     <row r="67" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B67,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B67,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B67,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B67,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D67" s="6"/>
@@ -6645,7 +6716,7 @@
     <row r="68" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B68,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B68,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B68,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B68,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D68" s="6"/>
@@ -6663,7 +6734,7 @@
     <row r="69" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B69,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B69,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B69,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B69,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D69" s="6"/>
@@ -6681,7 +6752,7 @@
     <row r="70" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B70,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B70,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B70,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B70,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D70" s="6"/>
@@ -6699,7 +6770,7 @@
     <row r="71" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B71,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B71,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B71,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B71,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D71" s="6"/>
@@ -6717,7 +6788,7 @@
     <row r="72" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B72,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B72,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B72,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B72,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D72" s="6"/>
@@ -6735,7 +6806,7 @@
     <row r="73" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B73,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B73,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B73,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B73,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D73" s="6"/>
@@ -6753,7 +6824,7 @@
     <row r="74" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B74,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B74,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B74,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B74,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D74" s="6"/>
@@ -6771,7 +6842,7 @@
     <row r="75" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B75,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B75,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B75,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B75,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D75" s="6"/>
@@ -6789,7 +6860,7 @@
     <row r="76" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B76,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B76,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B76,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B76,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D76" s="6"/>
@@ -6807,7 +6878,7 @@
     <row r="77" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B77,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B77,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B77,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B77,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D77" s="6"/>
@@ -6825,7 +6896,7 @@
     <row r="78" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B78,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B78,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B78,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B78,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D78" s="6"/>
@@ -6843,7 +6914,7 @@
     <row r="79" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="6"/>
       <c r="C79" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B79,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B79,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B79,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B79,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D79" s="6"/>
@@ -6861,7 +6932,7 @@
     <row r="80" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B80,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B80,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B80,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B80,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D80" s="6"/>
@@ -6879,7 +6950,7 @@
     <row r="81" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="6"/>
       <c r="C81" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B81,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B81,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B81,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B81,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D81" s="6"/>
@@ -6897,7 +6968,7 @@
     <row r="82" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="6"/>
       <c r="C82" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B82,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B82,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B82,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B82,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D82" s="6"/>
@@ -6915,7 +6986,7 @@
     <row r="83" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="6"/>
       <c r="C83" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B83,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B83,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B83,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B83,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D83" s="6"/>
@@ -6933,7 +7004,7 @@
     <row r="84" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B84,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B84,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B84,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B84,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D84" s="6"/>
@@ -6951,7 +7022,7 @@
     <row r="85" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="6"/>
       <c r="C85" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B85,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B85,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B85,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B85,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D85" s="6"/>
@@ -6969,7 +7040,7 @@
     <row r="86" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="6"/>
       <c r="C86" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B86,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B86,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B86,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B86,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D86" s="6"/>
@@ -6987,7 +7058,7 @@
     <row r="87" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="6"/>
       <c r="C87" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B87,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B87,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B87,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B87,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D87" s="6"/>
@@ -7005,7 +7076,7 @@
     <row r="88" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B88,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B88,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B88,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B88,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D88" s="6"/>
@@ -7023,7 +7094,7 @@
     <row r="89" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B89,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B89,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B89,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B89,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D89" s="6"/>
@@ -7041,7 +7112,7 @@
     <row r="90" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="6"/>
       <c r="C90" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B90,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B90,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B90,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B90,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D90" s="6"/>
@@ -7059,7 +7130,7 @@
     <row r="91" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="6"/>
       <c r="C91" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B91,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B91,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B91,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B91,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D91" s="6"/>
@@ -7077,7 +7148,7 @@
     <row r="92" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B92,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B92,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B92,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B92,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D92" s="6"/>
@@ -7095,7 +7166,7 @@
     <row r="93" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="6"/>
       <c r="C93" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B93,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B93,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B93,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B93,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D93" s="6"/>
@@ -7113,7 +7184,7 @@
     <row r="94" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="6"/>
       <c r="C94" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B94,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B94,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B94,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B94,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D94" s="6"/>
@@ -7131,7 +7202,7 @@
     <row r="95" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="6"/>
       <c r="C95" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B95,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B95,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B95,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B95,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D95" s="6"/>
@@ -7149,7 +7220,7 @@
     <row r="96" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="6"/>
       <c r="C96" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B96,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B96,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B96,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B96,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D96" s="6"/>
@@ -7167,7 +7238,7 @@
     <row r="97" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="6"/>
       <c r="C97" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B97,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B97,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B97,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B97,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D97" s="6"/>
@@ -7185,7 +7256,7 @@
     <row r="98" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="6"/>
       <c r="C98" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B98,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B98,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B98,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B98,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D98" s="6"/>
@@ -7203,7 +7274,7 @@
     <row r="99" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="6"/>
       <c r="C99" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B99,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B99,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B99,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B99,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D99" s="6"/>
@@ -7221,7 +7292,7 @@
     <row r="100" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="6"/>
       <c r="C100" s="6" t="str">
-        <f>IF(SUMIF(Orders!$B$2:$B$105,B100,Orders!$C$2:$C$105)=0,"",SUMIF(Orders!$B$2:$B$105,B100,Orders!$C$2:$C$105))</f>
+        <f>IF(SUMIF(Orders!$B$2:$B$107,B100,Orders!$C$2:$C$107)=0,"",SUMIF(Orders!$B$2:$B$107,B100,Orders!$C$2:$C$107))</f>
         <v/>
       </c>
       <c r="D100" s="6"/>
@@ -8180,11 +8251,11 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A28">_xlfn.UNIQUE(_xlfn.TOCOL(Pizza[[Topping 1]:[Topping 10]]))</f>
+        <f t="array" ref="A2:A29">_xlfn.UNIQUE(_xlfn.TOCOL(Pizza[[Topping 1]:[Topping 10]]))</f>
         <v>Pomodoro</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:B27">_xlfn._xlws.FILTER(A:A,A:A&lt;&gt;0)</f>
+        <f t="array" ref="B2:B28">_xlfn._xlws.FILTER(A:A,A:A&lt;&gt;0)</f>
         <v>Pomodoro</v>
       </c>
       <c r="C2" t="str">
@@ -8496,12 +8567,18 @@
       <c r="A28" t="str">
         <v>Peperoni</v>
       </c>
+      <c r="B28" t="str">
+        <v xml:space="preserve">Prosciutto </v>
+      </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve">Prosciutto </v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" t="str">
+        <v xml:space="preserve">Prosciutto </v>
+      </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pozzi\Documents\Projects\pizza_chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D282D2-C411-43A6-8E2B-0D09EC556261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A8A1E0-D65C-40F5-AF4B-E48BBE6CC89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -601,6 +601,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -614,9 +617,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1007"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1028,12 +1028,12 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
@@ -1048,10 +1048,10 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
@@ -1066,10 +1066,10 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -1084,10 +1084,10 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
@@ -1102,10 +1102,10 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
@@ -1120,10 +1120,10 @@
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
@@ -4887,7 +4887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+    <sheetView topLeftCell="B17" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -5024,12 +5024,12 @@
         <v>45603</v>
       </c>
       <c r="O3" s="5"/>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="22"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -5075,10 +5075,10 @@
         <v>45603</v>
       </c>
       <c r="O4" s="5"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="24"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="25"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -5122,10 +5122,10 @@
         <v>45603</v>
       </c>
       <c r="O5" s="5"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="24"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="25"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -5167,10 +5167,10 @@
         <v>45603</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="24"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="25"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -5213,10 +5213,10 @@
         <v>45603</v>
       </c>
       <c r="O7" s="5"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -5831,19 +5831,19 @@
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
         <v>1</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="19" t="s">
         <v>48</v>
       </c>
       <c r="J22" s="6"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pozzi\Documents\Projects\pizza_chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A8A1E0-D65C-40F5-AF4B-E48BBE6CC89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F3DBFE-B5F6-4EEE-AB6D-3F562ABBA07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -366,7 +366,19 @@
     <t>Crocken</t>
   </si>
   <si>
-    <t xml:space="preserve">Prosciutto </t>
+    <t>Crudo e grana</t>
+  </si>
+  <si>
+    <t>Speciale bianca</t>
+  </si>
+  <si>
+    <t>Prosciutto cotto</t>
+  </si>
+  <si>
+    <t>Prosciutto crudo</t>
+  </si>
+  <si>
+    <t>Wurstel</t>
   </si>
 </sst>
 </file>
@@ -559,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -616,6 +628,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -720,8 +735,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D75">
-  <autoFilter ref="A1:D75" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D79">
+  <autoFilter ref="A1:D79" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pizza"/>
@@ -974,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2064,16 +2079,60 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C76" s="2"/>
+      <c r="A76" s="14">
+        <v>45804</v>
+      </c>
+      <c r="B76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="77" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C77" s="2"/>
+      <c r="A77" s="14">
+        <v>45804</v>
+      </c>
+      <c r="B77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C78" s="2"/>
+      <c r="A78" s="14">
+        <v>45804</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C79" s="2"/>
+      <c r="A79" s="14">
+        <v>45804</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C80" s="2"/>
@@ -4887,8 +4946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4945,7 +5004,7 @@
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="str" cm="1">
-        <f t="array" ref="A2:A22">_xlfn.UNIQUE(Orders[Pizza])</f>
+        <f t="array" ref="A2:A24">_xlfn.UNIQUE(Orders[Pizza])</f>
         <v>Siciliana</v>
       </c>
       <c r="B2" s="5" t="str">
@@ -5282,7 +5341,7 @@
       </c>
       <c r="C9" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>34</v>
@@ -5466,7 +5525,7 @@
       </c>
       <c r="C13" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>34</v>
@@ -5474,8 +5533,8 @@
       <c r="E13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>21</v>
+      <c r="F13" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>45</v>
@@ -5521,8 +5580,8 @@
       <c r="E14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>21</v>
+      <c r="F14" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>36</v>
@@ -5618,7 +5677,7 @@
         <v>39</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -5840,8 +5899,8 @@
       <c r="F22" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="19" t="s">
-        <v>64</v>
+      <c r="G22" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>48</v>
@@ -5856,51 +5915,75 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="16" t="str">
+        <v>Crudo e grana</v>
+      </c>
       <c r="B23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C23" s="6" t="str">
+        <v>Crudo e grana</v>
+      </c>
+      <c r="C23" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v/>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="8" t="str">
+      <c r="N23" s="8">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
-        <v/>
+        <v>45804</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="16" t="str">
+        <v>Speciale bianca</v>
+      </c>
       <c r="B24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C24" s="6" t="str">
+        <v>Speciale bianca</v>
+      </c>
+      <c r="C24" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v/>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="8" t="str">
+      <c r="N24" s="8">
         <f>IF(_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]])=0,"",_xlfn.MINIFS(Orders[Date],Orders[Pizza],Pizza[[#This Row],[Pizza]]))</f>
-        <v/>
+        <v>45804</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -8251,11 +8334,11 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A29">_xlfn.UNIQUE(_xlfn.TOCOL(Pizza[[Topping 1]:[Topping 10]]))</f>
+        <f t="array" ref="A2:A30">_xlfn.UNIQUE(_xlfn.TOCOL(Pizza[[Topping 1]:[Topping 10]]))</f>
         <v>Pomodoro</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:B28">_xlfn._xlws.FILTER(A:A,A:A&lt;&gt;0)</f>
+        <f t="array" ref="B2:B29">_xlfn._xlws.FILTER(A:A,A:A&lt;&gt;0)</f>
         <v>Pomodoro</v>
       </c>
       <c r="C2" t="str">
@@ -8496,16 +8579,16 @@
         <v>Salsiccia</v>
       </c>
       <c r="B22" t="str">
-        <v>Prosciutto</v>
+        <v>Prosciutto cotto</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>Prosciutto</v>
+        <v>Prosciutto cotto</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" t="str">
-        <v>Prosciutto</v>
+        <v>Prosciutto cotto</v>
       </c>
       <c r="B23" t="str">
         <v>Carciofini</v>
@@ -8568,23 +8651,29 @@
         <v>Peperoni</v>
       </c>
       <c r="B28" t="str">
-        <v xml:space="preserve">Prosciutto </v>
+        <v>Prosciutto crudo</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Prosciutto </v>
+        <v>Prosciutto crudo</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" t="str">
-        <v xml:space="preserve">Prosciutto </v>
+        <v>Prosciutto crudo</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Wurstel</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Wurstel</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" t="str">
+        <v>Wurstel</v>
+      </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pozzi\Documents\Projects\pizza_chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F3DBFE-B5F6-4EEE-AB6D-3F562ABBA07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B18E95-C15C-4A89-A408-BBF76EC9A3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,6 +616,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -628,9 +631,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1007"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1043,12 +1043,12 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
@@ -1063,10 +1063,10 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
@@ -1081,10 +1081,10 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -1099,10 +1099,10 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
@@ -1117,10 +1117,10 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
@@ -1135,10 +1135,10 @@
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
@@ -4946,8 +4946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5083,12 +5083,12 @@
         <v>45603</v>
       </c>
       <c r="O3" s="5"/>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="23"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -5134,10 +5134,10 @@
         <v>45603</v>
       </c>
       <c r="O4" s="5"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="25"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="26"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -5181,10 +5181,10 @@
         <v>45603</v>
       </c>
       <c r="O5" s="5"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="25"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="26"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -5226,10 +5226,10 @@
         <v>45603</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="25"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="26"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -5272,10 +5272,10 @@
         <v>45603</v>
       </c>
       <c r="O7" s="5"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="28"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -5899,7 +5899,7 @@
       <c r="F22" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="20" t="s">
         <v>66</v>
       </c>
       <c r="H22" s="19" t="s">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pozzi\Documents\Projects\pizza_chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B18E95-C15C-4A89-A408-BBF76EC9A3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EECBB70-764F-49FD-BBE0-D72DA70F48D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1007"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4946,8 +4946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8307,7 +8307,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -708,7 +708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1014"/>
+  <dimension ref="A1:I1021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
@@ -5057,9 +5057,6 @@
           <t xml:space="preserve"> 1 Da Rida</t>
         </is>
       </c>
-      <c r="D1012" t="n">
-        <v/>
-      </c>
     </row>
     <row r="1013">
       <c r="A1013" t="inlineStr">
@@ -5100,6 +5097,146 @@
         </is>
       </c>
       <c r="D1014" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Da Rida</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tonno e cipolle</t>
+        </is>
+      </c>
+      <c r="C1015" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Da Rida</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Prosciutto e funghi bianca</t>
+        </is>
+      </c>
+      <c r="C1016" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Da Rida</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Margherita</t>
+        </is>
+      </c>
+      <c r="C1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Da Rida</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tonno e peperoni</t>
+        </is>
+      </c>
+      <c r="C1018" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Da Rida</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Speciale bianca</t>
+        </is>
+      </c>
+      <c r="C1019" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Da Rida</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Crudo e bufala</t>
+        </is>
+      </c>
+      <c r="C1020" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Da Rida</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salame piccante</t>
+        </is>
+      </c>
+      <c r="C1021" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1021" t="inlineStr">
         <is>
           <t xml:space="preserve"> Da Rida</t>
         </is>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -431,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Orders" displayName="Orders" ref="A1:D86" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Orders" displayName="Orders" ref="A1:D93" headerRowCount="1">
   <autoFilter ref="A1:D86"/>
   <sortState ref="A2:D86">
     <sortCondition ref="A1:A86"/>
@@ -2292,34 +2292,144 @@
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1" s="27">
-      <c r="A87" s="14" t="n"/>
-      <c r="C87" s="2" t="n"/>
+      <c r="A87" s="33" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="B87" s="22" t="inlineStr">
+        <is>
+          <t>Tonno e cipolle</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" s="22" t="inlineStr">
+        <is>
+          <t>Da Rida</t>
+        </is>
+      </c>
     </row>
     <row r="88" ht="14.25" customHeight="1" s="27">
-      <c r="A88" s="14" t="n"/>
-      <c r="C88" s="2" t="n"/>
+      <c r="A88" s="33" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="B88" s="22" t="inlineStr">
+        <is>
+          <t>Prosciutto e funghi bianca</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" s="22" t="inlineStr">
+        <is>
+          <t>Da Rida</t>
+        </is>
+      </c>
     </row>
     <row r="89" ht="14.25" customHeight="1" s="27">
-      <c r="A89" s="14" t="n"/>
-      <c r="C89" s="2" t="n"/>
+      <c r="A89" s="33" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="B89" s="22" t="inlineStr">
+        <is>
+          <t>Margherita</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" s="22" t="inlineStr">
+        <is>
+          <t>Da Rida</t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="14.25" customHeight="1" s="27">
-      <c r="A90" s="14" t="n"/>
-      <c r="C90" s="2" t="n"/>
+      <c r="A90" s="33" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="B90" s="22" t="inlineStr">
+        <is>
+          <t>Tonno e peperoni</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" s="22" t="inlineStr">
+        <is>
+          <t>Da Rida</t>
+        </is>
+      </c>
     </row>
     <row r="91" ht="14.25" customHeight="1" s="27">
-      <c r="A91" s="14" t="n"/>
-      <c r="C91" s="2" t="n"/>
+      <c r="A91" s="33" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="B91" s="22" t="inlineStr">
+        <is>
+          <t>Speciale bianca</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" s="22" t="inlineStr">
+        <is>
+          <t>Da Rida</t>
+        </is>
+      </c>
     </row>
     <row r="92" ht="14.25" customHeight="1" s="27">
-      <c r="A92" s="14" t="n"/>
-      <c r="C92" s="2" t="n"/>
+      <c r="A92" s="33" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="B92" s="22" t="inlineStr">
+        <is>
+          <t>Crudo e bufala</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" s="22" t="inlineStr">
+        <is>
+          <t>Da Rida</t>
+        </is>
+      </c>
     </row>
     <row r="93" ht="14.25" customHeight="1" s="27">
-      <c r="A93" s="21" t="n"/>
-      <c r="B93" s="22" t="n"/>
-      <c r="C93" s="2" t="n"/>
-      <c r="D93" s="22" t="n"/>
+      <c r="A93" s="33" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="B93" s="22" t="inlineStr">
+        <is>
+          <t>Salame piccante</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" s="22" t="inlineStr">
+        <is>
+          <t>Da Rida</t>
+        </is>
+      </c>
     </row>
     <row r="94" ht="14.25" customHeight="1" s="27">
       <c r="A94" s="21" t="n"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pozzi\Documents\Projects\pizza_chart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD48422-474D-47CC-9577-1439F7C569AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB96E58-8C09-46D3-952C-EBFB6FB1C98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -128,18 +128,6 @@
   </si>
   <si>
     <t>Speciale bianca</t>
-  </si>
-  <si>
-    <t>17/06/2025</t>
-  </si>
-  <si>
-    <t>Prosciutto e funghi bianca</t>
-  </si>
-  <si>
-    <t>Tonno e peperoni</t>
-  </si>
-  <si>
-    <t>Crudo e bufala</t>
   </si>
   <si>
     <t>Topping 1</t>
@@ -446,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -496,12 +484,6 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -616,8 +598,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D86">
-  <autoFilter ref="A1:D86" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Orders" displayName="Orders" ref="A1:D79">
+  <autoFilter ref="A1:D79" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D79">
     <sortCondition ref="A1:A79"/>
   </sortState>
@@ -871,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I978"/>
+  <dimension ref="A1:I971"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -927,12 +909,12 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
@@ -947,10 +929,10 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
@@ -965,10 +947,10 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
@@ -983,10 +965,10 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
@@ -1001,10 +983,10 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
@@ -1019,10 +1001,10 @@
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
@@ -2019,131 +2001,54 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C80" s="21">
-        <v>1</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C81" s="21">
-        <v>1</v>
-      </c>
-      <c r="D81" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="21">
-        <v>1</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C83" s="21">
-        <v>1</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C84" s="21">
-        <v>1</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="21">
-        <v>2</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" s="21">
-        <v>1</v>
-      </c>
-      <c r="D86" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C96" s="2"/>
     </row>
     <row r="97" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -4708,62 +4613,41 @@
     <row r="950" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C950" s="2"/>
     </row>
-    <row r="951" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="951" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C951" s="2"/>
     </row>
-    <row r="952" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="952" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C952" s="2"/>
     </row>
-    <row r="953" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="953" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C953" s="2"/>
     </row>
-    <row r="954" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="954" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C954" s="2"/>
     </row>
-    <row r="955" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="955" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C955" s="2"/>
     </row>
-    <row r="956" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="956" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C956" s="2"/>
     </row>
-    <row r="957" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="957" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C957" s="2"/>
     </row>
-    <row r="958" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C958" s="2"/>
-    </row>
-    <row r="959" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C959" s="2"/>
-    </row>
-    <row r="960" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C960" s="2"/>
-    </row>
-    <row r="961" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C961" s="2"/>
-    </row>
-    <row r="962" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C962" s="2"/>
-    </row>
-    <row r="963" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C963" s="2"/>
-    </row>
-    <row r="964" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C964" s="2"/>
-    </row>
-    <row r="965" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="966" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="967" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="968" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="969" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="970" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="971" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="972" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="973" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="974" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="975" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="976" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="958" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="959" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="960" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F3:I8"/>
@@ -4815,37 +4699,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -4862,19 +4746,19 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -4908,13 +4792,13 @@
       </c>
       <c r="C3" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -4929,12 +4813,12 @@
         <v>45603</v>
       </c>
       <c r="O3" s="5"/>
-      <c r="P3" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="26"/>
+      <c r="P3" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="24"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -4956,19 +4840,19 @@
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -4980,10 +4864,10 @@
         <v>45603</v>
       </c>
       <c r="O4" s="5"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="29"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="27"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -5005,16 +4889,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5027,10 +4911,10 @@
         <v>45603</v>
       </c>
       <c r="O5" s="5"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="27"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -5049,13 +4933,13 @@
       </c>
       <c r="C6" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>10</v>
@@ -5072,10 +4956,10 @@
         <v>45603</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="29"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="27"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -5097,16 +4981,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -5118,10 +5002,10 @@
         <v>45603</v>
       </c>
       <c r="O7" s="5"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="32"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -5143,16 +5027,16 @@
         <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5190,16 +5074,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5237,10 +5121,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>14</v>
@@ -5282,16 +5166,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5329,13 +5213,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -5374,16 +5258,16 @@
         <v>6</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -5421,22 +5305,22 @@
         <v>4</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -5472,13 +5356,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -5517,13 +5401,13 @@
         <v>4</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -5562,19 +5446,19 @@
         <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -5599,13 +5483,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -5629,19 +5513,19 @@
       </c>
       <c r="C19" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -5667,10 +5551,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>26</v>
@@ -5700,19 +5584,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -5737,19 +5621,19 @@
         <v>1</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -5773,16 +5657,16 @@
         <v>1</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -5805,22 +5689,22 @@
       </c>
       <c r="C24" s="6">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -5833,16 +5717,16 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="16" t="str">
-        <v>Prosciutto e funghi bianca</v>
-      </c>
-      <c r="B25" s="6" t="str">
+      <c r="A25" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B25" s="6" t="e">
         <f t="array" ref="B25">_xlfn.IFS(ISBLANK($A25),"",$A25=0,"",TRUE,$A25)</f>
-        <v>Prosciutto e funghi bianca</v>
-      </c>
-      <c r="C25" s="6">
+        <v>#N/A</v>
+      </c>
+      <c r="C25" s="6" t="str">
         <f>IF(SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#])=0,"",SUMIF(Orders[Pizza],Pizza[[#This Row],[Pizza]],Orders['#]))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -8172,13 +8056,13 @@
     <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="15"/>
       <c r="C1" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
